--- a/テスト仕様書/実装エクセル/テスト仕様書.xlsx
+++ b/テスト仕様書/実装エクセル/テスト仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakamura Yu\Desktop\仕事\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hope2\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -20,35 +20,44 @@
     <sheet name="横画面デザイン(Android) " sheetId="20" r:id="rId6"/>
     <sheet name="入力判定(iPhone)" sheetId="7" r:id="rId7"/>
     <sheet name="入力判定(Android) " sheetId="21" r:id="rId8"/>
-    <sheet name="加算演算処理" sheetId="8" r:id="rId9"/>
-    <sheet name="減算演算処理" sheetId="23" r:id="rId10"/>
-    <sheet name="乗算演算処理" sheetId="24" r:id="rId11"/>
-    <sheet name="徐算演算処理 " sheetId="26" r:id="rId12"/>
-    <sheet name="1分の100表示処理" sheetId="27" r:id="rId13"/>
-    <sheet name="正負変換処理 " sheetId="28" r:id="rId14"/>
+    <sheet name="加算演算処理(iPhone)" sheetId="8" r:id="rId9"/>
+    <sheet name="加算演算処理 (Android)" sheetId="33" r:id="rId10"/>
+    <sheet name="減算演算処理(iPhone)" sheetId="23" r:id="rId11"/>
+    <sheet name="減算演算処理 (Android)" sheetId="34" r:id="rId12"/>
+    <sheet name="乗算演算処理(iPhone)" sheetId="24" r:id="rId13"/>
+    <sheet name="乗算演算処理 (Android)" sheetId="35" r:id="rId14"/>
+    <sheet name="徐算演算処理 (iPhone)" sheetId="26" r:id="rId15"/>
+    <sheet name="徐算演算処理  (Android)" sheetId="36" r:id="rId16"/>
+    <sheet name="1分の100表示処理" sheetId="27" r:id="rId17"/>
+    <sheet name="正負変換処理 " sheetId="28" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'1分の100表示処理'!$B$2:$K$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'1分の100表示処理'!$B$2:$K$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'横画面デザイン(Android) '!$D$2:$M$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'横画面デザイン(iPhone)'!$D$2:$M$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">加算演算処理!$B$2:$K$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">減算演算処理!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'加算演算処理 (Android)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'加算演算処理(iPhone)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'減算演算処理 (Android)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'減算演算処理(iPhone)'!$B$2:$K$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'縦画面デザイン(Android) '!$D$2:$M$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'縦画面デザイン(iPhone)'!$D$2:$M$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'徐算演算処理 '!$B$2:$K$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">乗算演算処理!$B$2:$K$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'正負変換処理 '!$B$2:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'徐算演算処理  (Android)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'徐算演算処理 (iPhone)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'乗算演算処理 (Android)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'乗算演算処理(iPhone)'!$B$2:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'正負変換処理 '!$B$2:$K$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'入力判定(Android) '!$B$2:$K$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'入力判定(iPhone)'!$B$2:$K$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$5:$F$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">目次!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="0" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="397">
   <si>
     <t>作成日</t>
   </si>
@@ -5689,11 +5698,65 @@
     <t>test_155to190.jpg</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>済み</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カンマがついていない</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カンマがついていない</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>小さくなっていない</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_191to202and206</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_203to205</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_207</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_208</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_209</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_210</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_211</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test_212</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -6100,7 +6163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -6630,12 +6693,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7036,9 +7108,6 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7067,8 +7136,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7107,9 +7174,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7166,6 +7230,52 @@
     <xf numFmtId="0" fontId="56" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -7271,25 +7381,13 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="26" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="26" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="26" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7529,32 +7627,32 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="199"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="200"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="32"/>
       <c r="H7" s="3"/>
     </row>
@@ -7734,10 +7832,10 @@
       <c r="C27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="194" t="s">
+      <c r="D27" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="195"/>
+      <c r="E27" s="207"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -7747,10 +7845,10 @@
       <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="197"/>
+      <c r="E28" s="209"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -7774,11 +7872,11 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="198" t="s">
+      <c r="C31" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
@@ -7797,6 +7895,999 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="6"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="120.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="122.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="46.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="232" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>43943</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="176" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="131">
+        <v>230</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="132">
+        <v>231</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="132">
+        <v>232</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="132">
+        <v>233</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="132">
+        <v>234</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="132">
+        <v>235</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="91"/>
+    </row>
+    <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="132">
+        <v>236</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="160">
+        <v>237</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="69"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="6"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="120.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="122.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="46.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="232" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>43943</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="176" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="131">
+        <v>238</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="132">
+        <v>239</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="132">
+        <v>240</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="132">
+        <v>241</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="132">
+        <v>242</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="132">
+        <v>243</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="91"/>
+    </row>
+    <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="132">
+        <v>244</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="160">
+        <v>245</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="69"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="6"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="120.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="122.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="46.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="232" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>43943</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="176" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="131">
+        <v>238</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="132">
+        <v>239</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="132">
+        <v>240</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="132">
+        <v>241</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="132">
+        <v>242</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="132">
+        <v>243</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="91"/>
+    </row>
+    <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="132">
+        <v>244</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="160">
+        <v>245</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="69"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7823,11 +8914,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="220" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="B2" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -7841,14 +8932,14 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
@@ -7857,9 +8948,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -7895,8 +8986,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="180" t="s">
-        <v>325</v>
+      <c r="C7" s="176" t="s">
+        <v>326</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -7913,10 +9004,10 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="150" t="s">
         <v>300</v>
       </c>
-      <c r="J7" s="151" t="s">
+      <c r="J7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K7" s="62" t="s">
@@ -7925,7 +9016,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -7934,10 +9025,10 @@
         <v>51</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="63"/>
@@ -7946,7 +9037,7 @@
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="132">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -7955,10 +9046,10 @@
         <v>197</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -7967,7 +9058,7 @@
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="132">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -7976,10 +9067,10 @@
         <v>201</v>
       </c>
       <c r="F10" s="139" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G10" s="141" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
@@ -7988,7 +9079,7 @@
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="132">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -7997,10 +9088,10 @@
         <v>201</v>
       </c>
       <c r="F11" s="139" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G11" s="141" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="118"/>
@@ -8009,7 +9100,7 @@
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="132">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -8018,10 +9109,10 @@
         <v>201</v>
       </c>
       <c r="F12" s="139" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G12" s="141" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H12" s="118"/>
       <c r="I12" s="118"/>
@@ -8030,7 +9121,7 @@
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="132">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -8039,10 +9130,10 @@
         <v>201</v>
       </c>
       <c r="F13" s="139" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G13" s="141" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H13" s="118"/>
       <c r="I13" s="118"/>
@@ -8051,7 +9142,7 @@
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="132">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -8063,7 +9154,7 @@
         <v>247</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H14" s="118"/>
       <c r="I14" s="118"/>
@@ -8071,8 +9162,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="163">
-        <v>245</v>
+      <c r="C15" s="160">
+        <v>253</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>200</v>
@@ -8081,14 +9172,14 @@
         <v>201</v>
       </c>
       <c r="F15" s="138" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G15" s="135" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="155"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8125,7 +9216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8152,11 +9243,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -8170,9 +9261,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -8186,9 +9277,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -8224,8 +9315,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="180" t="s">
-        <v>326</v>
+      <c r="C7" s="176" t="s">
+        <v>321</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -8242,10 +9333,10 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="151" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="151" t="s">
+      <c r="I7" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K7" s="62" t="s">
@@ -8302,7 +9393,7 @@
         <v>204</v>
       </c>
       <c r="E10" s="134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="139" t="s">
         <v>231</v>
@@ -8323,7 +9414,7 @@
         <v>204</v>
       </c>
       <c r="E11" s="134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F11" s="139" t="s">
         <v>243</v>
@@ -8344,7 +9435,7 @@
         <v>204</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F12" s="139" t="s">
         <v>233</v>
@@ -8365,7 +9456,7 @@
         <v>196</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F13" s="139" t="s">
         <v>235</v>
@@ -8386,7 +9477,7 @@
         <v>196</v>
       </c>
       <c r="E14" s="134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F14" s="139" t="s">
         <v>247</v>
@@ -8400,14 +9491,14 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="163">
+      <c r="C15" s="160">
         <v>253</v>
       </c>
       <c r="D15" s="136" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E15" s="137" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F15" s="138" t="s">
         <v>236</v>
@@ -8417,7 +9508,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="155"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8454,7 +9545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8481,11 +9572,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="232" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -8499,9 +9590,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -8515,9 +9606,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -8553,7 +9644,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="180" t="s">
+      <c r="C7" s="176" t="s">
         <v>327</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -8571,10 +9662,10 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="150" t="s">
         <v>301</v>
       </c>
-      <c r="J7" s="151" t="s">
+      <c r="J7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K7" s="62" t="s">
@@ -8729,7 +9820,7 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="163">
+      <c r="C15" s="160">
         <v>261</v>
       </c>
       <c r="D15" s="136" t="s">
@@ -8746,7 +9837,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="155"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8783,7 +9874,336 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="6"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="120.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="122.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="46.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="232" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>43943</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="176" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="131">
+        <v>254</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="132">
+        <v>255</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="132">
+        <v>256</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="132">
+        <v>257</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="132">
+        <v>258</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="139" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="132">
+        <v>259</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="91"/>
+    </row>
+    <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="132">
+        <v>260</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="160">
+        <v>261</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="69"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8810,11 +10230,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="232" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -8828,9 +10248,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -8844,9 +10264,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -8882,7 +10302,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="180" t="s">
+      <c r="C7" s="176" t="s">
         <v>328</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -8900,10 +10320,10 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="150" t="s">
         <v>300</v>
       </c>
-      <c r="J7" s="151" t="s">
+      <c r="J7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K7" s="62" t="s">
@@ -8928,7 +10348,7 @@
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="66"/>
-      <c r="J8" s="152"/>
+      <c r="J8" s="151"/>
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,12 +10364,12 @@
       <c r="F9" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="147" t="s">
         <v>270</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="153"/>
+      <c r="J9" s="152"/>
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,7 +10390,7 @@
       </c>
       <c r="H10" s="118"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="153"/>
+      <c r="J10" s="152"/>
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -8991,7 +10411,7 @@
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="153"/>
+      <c r="J11" s="152"/>
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -9012,7 +10432,7 @@
       </c>
       <c r="H12" s="118"/>
       <c r="I12" s="91"/>
-      <c r="J12" s="153"/>
+      <c r="J12" s="152"/>
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -9025,7 +10445,7 @@
       <c r="E13" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="148" t="s">
         <v>275</v>
       </c>
       <c r="G13" s="141" t="s">
@@ -9033,11 +10453,11 @@
       </c>
       <c r="H13" s="118"/>
       <c r="I13" s="91"/>
-      <c r="J13" s="153"/>
+      <c r="J13" s="152"/>
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="163">
+      <c r="C14" s="160">
         <v>268</v>
       </c>
       <c r="D14" s="136" t="s">
@@ -9054,7 +10474,7 @@
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="69"/>
-      <c r="J14" s="154"/>
+      <c r="J14" s="153"/>
       <c r="K14" s="69"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9092,7 +10512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9119,11 +10539,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="232" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -9137,9 +10557,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -9153,9 +10573,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -9191,7 +10611,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="180" t="s">
+      <c r="C7" s="176" t="s">
         <v>328</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -9209,10 +10629,10 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="150" t="s">
         <v>300</v>
       </c>
-      <c r="J7" s="151" t="s">
+      <c r="J7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K7" s="62" t="s">
@@ -9237,7 +10657,7 @@
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="66"/>
-      <c r="J8" s="152"/>
+      <c r="J8" s="151"/>
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -9253,12 +10673,12 @@
       <c r="F9" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="149" t="s">
         <v>282</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="153"/>
+      <c r="J9" s="152"/>
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -9279,7 +10699,7 @@
       </c>
       <c r="H10" s="118"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="153"/>
+      <c r="J10" s="152"/>
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,11 +10720,11 @@
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="153"/>
+      <c r="J11" s="152"/>
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="163">
+      <c r="C12" s="160">
         <v>273</v>
       </c>
       <c r="D12" s="136" t="s">
@@ -9316,12 +10736,12 @@
       <c r="F12" s="138" t="s">
         <v>284</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="161" t="s">
         <v>285</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="154"/>
+      <c r="J12" s="153"/>
       <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9388,20 +10808,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
@@ -9429,20 +10849,20 @@
       <c r="D6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="176" t="s">
+      <c r="E6" s="172" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="176"/>
-      <c r="H6" s="179" t="s">
+      <c r="F6" s="172"/>
+      <c r="H6" s="175" t="s">
         <v>311</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="176" t="s">
+      <c r="J6" s="172" t="s">
         <v>312</v>
       </c>
-      <c r="K6" s="176"/>
+      <c r="K6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="38" t="s">
@@ -9483,8 +10903,8 @@
         <v>329</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="H9" s="38" t="s">
         <v>318</v>
       </c>
@@ -9494,7 +10914,7 @@
       <c r="J9" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="K9" s="177"/>
+      <c r="K9" s="173"/>
     </row>
     <row r="10" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="38" t="s">
@@ -9503,10 +10923,10 @@
       <c r="D10" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="172" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="176"/>
+      <c r="F10" s="172"/>
       <c r="H10" s="38" t="s">
         <v>319</v>
       </c>
@@ -9516,7 +10936,7 @@
       <c r="J10" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="K10" s="176"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="38" t="s">
@@ -9525,10 +10945,10 @@
       <c r="D11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="173" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="177"/>
+      <c r="F11" s="173"/>
       <c r="H11" s="38" t="s">
         <v>320</v>
       </c>
@@ -9538,7 +10958,7 @@
       <c r="J11" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="K11" s="177"/>
+      <c r="K11" s="173"/>
     </row>
     <row r="12" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="41"/>
@@ -9555,44 +10975,44 @@
         <v>330</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
       <c r="H13" s="42"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
     </row>
     <row r="14" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="174" t="s">
         <v>306</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="177" t="s">
+      <c r="E14" s="173" t="s">
         <v>307</v>
       </c>
       <c r="F14" s="44"/>
-      <c r="H14" s="178"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="177"/>
+      <c r="J14" s="173"/>
       <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="174" t="s">
         <v>309</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="173" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="H15" s="178"/>
+      <c r="F15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
     </row>
     <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="38"/>
@@ -9633,7 +11053,7 @@
   </sheetPr>
   <dimension ref="B1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="E58" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="E55" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -9658,11 +11078,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="214" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="216"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -9678,9 +11098,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -9688,10 +11108,10 @@
         <v>59</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="189" t="s">
         <v>348</v>
       </c>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="189" t="s">
         <v>356</v>
       </c>
       <c r="L3" s="33"/>
@@ -9700,18 +11120,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="187" t="s">
         <v>349</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="188">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -9737,7 +11157,7 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="176" t="s">
         <v>321</v>
       </c>
       <c r="F7" s="57" t="s">
@@ -9755,10 +11175,10 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="151" t="s">
+      <c r="K7" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="M7" s="62" t="s">
@@ -9783,16 +11203,16 @@
       <c r="I8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="190" t="s">
         <v>335</v>
       </c>
-      <c r="K8" s="185" t="s">
+      <c r="K8" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L8" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="182" t="s">
+      <c r="L8" s="180">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="178" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9814,16 +11234,16 @@
       <c r="I9" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="229" t="s">
+      <c r="J9" s="190" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L9" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="183" t="s">
+      <c r="L9" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="179" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9845,16 +11265,16 @@
       <c r="I10" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="K10" s="185" t="s">
+      <c r="K10" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L10" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="183" t="s">
+      <c r="L10" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="179" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9876,16 +11296,16 @@
       <c r="I11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="230" t="s">
+      <c r="J11" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="K11" s="185" t="s">
+      <c r="K11" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L11" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="183" t="s">
+      <c r="L11" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="179" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9910,13 +11330,13 @@
       <c r="J12" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K12" s="185" t="s">
+      <c r="K12" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L12" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="152" t="s">
+      <c r="L12" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9941,13 +11361,13 @@
       <c r="J13" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K13" s="185" t="s">
+      <c r="K13" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L13" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="152" t="s">
+      <c r="L13" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9972,13 +11392,13 @@
       <c r="J14" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="185" t="s">
+      <c r="K14" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L14" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="152" t="s">
+      <c r="L14" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10003,13 +11423,13 @@
       <c r="J15" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K15" s="185" t="s">
+      <c r="K15" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L15" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="152" t="s">
+      <c r="L15" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10034,13 +11454,13 @@
       <c r="J16" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K16" s="185" t="s">
+      <c r="K16" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L16" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="152" t="s">
+      <c r="L16" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10065,13 +11485,13 @@
       <c r="J17" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L17" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="152" t="s">
+      <c r="L17" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10096,13 +11516,13 @@
       <c r="J18" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="185" t="s">
+      <c r="K18" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L18" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="152" t="s">
+      <c r="L18" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10127,13 +11547,13 @@
       <c r="J19" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K19" s="185" t="s">
+      <c r="K19" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L19" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="152" t="s">
+      <c r="L19" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10158,13 +11578,13 @@
       <c r="J20" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K20" s="185" t="s">
+      <c r="K20" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L20" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="152" t="s">
+      <c r="L20" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10189,13 +11609,13 @@
       <c r="J21" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K21" s="185" t="s">
+      <c r="K21" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L21" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="152" t="s">
+      <c r="L21" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10220,13 +11640,13 @@
       <c r="J22" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K22" s="185" t="s">
+      <c r="K22" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L22" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="152" t="s">
+      <c r="L22" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10251,13 +11671,13 @@
       <c r="J23" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K23" s="185" t="s">
+      <c r="K23" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L23" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="152" t="s">
+      <c r="L23" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10282,13 +11702,13 @@
       <c r="J24" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K24" s="185" t="s">
+      <c r="K24" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L24" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="152" t="s">
+      <c r="L24" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10313,13 +11733,13 @@
       <c r="J25" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K25" s="185" t="s">
+      <c r="K25" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L25" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="152" t="s">
+      <c r="L25" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10344,13 +11764,13 @@
       <c r="J26" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K26" s="185" t="s">
+      <c r="K26" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L26" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="152" t="s">
+      <c r="L26" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10375,13 +11795,13 @@
       <c r="J27" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K27" s="185" t="s">
+      <c r="K27" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L27" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="152" t="s">
+      <c r="L27" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10406,13 +11826,13 @@
       <c r="J28" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="185" t="s">
+      <c r="K28" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L28" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="152" t="s">
+      <c r="L28" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10437,13 +11857,13 @@
       <c r="J29" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K29" s="185" t="s">
+      <c r="K29" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L29" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="152" t="s">
+      <c r="L29" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10468,13 +11888,13 @@
       <c r="J30" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K30" s="185" t="s">
+      <c r="K30" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L30" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="152" t="s">
+      <c r="L30" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10499,13 +11919,13 @@
       <c r="J31" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K31" s="185" t="s">
+      <c r="K31" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L31" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="152" t="s">
+      <c r="L31" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10530,13 +11950,13 @@
       <c r="J32" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K32" s="185" t="s">
+      <c r="K32" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L32" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="152" t="s">
+      <c r="L32" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10561,13 +11981,13 @@
       <c r="J33" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L33" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="152" t="s">
+      <c r="L33" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10592,13 +12012,13 @@
       <c r="J34" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K34" s="185" t="s">
+      <c r="K34" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L34" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="152" t="s">
+      <c r="L34" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10623,13 +12043,13 @@
       <c r="J35" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K35" s="185" t="s">
+      <c r="K35" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L35" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="152" t="s">
+      <c r="L35" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10654,13 +12074,13 @@
       <c r="J36" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K36" s="185" t="s">
+      <c r="K36" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L36" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="152" t="s">
+      <c r="L36" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10685,13 +12105,13 @@
       <c r="J37" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L37" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="152" t="s">
+      <c r="L37" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10716,13 +12136,13 @@
       <c r="J38" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K38" s="185" t="s">
+      <c r="K38" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L38" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="152" t="s">
+      <c r="L38" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10747,13 +12167,13 @@
       <c r="J39" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K39" s="185" t="s">
+      <c r="K39" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L39" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="152" t="s">
+      <c r="L39" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10778,13 +12198,13 @@
       <c r="J40" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K40" s="185" t="s">
+      <c r="K40" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L40" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="152" t="s">
+      <c r="L40" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10809,13 +12229,13 @@
       <c r="J41" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K41" s="185" t="s">
+      <c r="K41" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L41" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="152" t="s">
+      <c r="L41" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10840,13 +12260,13 @@
       <c r="J42" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K42" s="185" t="s">
+      <c r="K42" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L42" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="152" t="s">
+      <c r="L42" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10871,13 +12291,13 @@
       <c r="J43" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K43" s="185" t="s">
+      <c r="K43" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L43" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="152" t="s">
+      <c r="L43" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10902,13 +12322,13 @@
       <c r="J44" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K44" s="185" t="s">
+      <c r="K44" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L44" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M44" s="152" t="s">
+      <c r="L44" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M44" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10933,13 +12353,13 @@
       <c r="J45" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K45" s="185" t="s">
+      <c r="K45" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L45" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M45" s="152" t="s">
+      <c r="L45" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M45" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10964,13 +12384,13 @@
       <c r="J46" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K46" s="185" t="s">
+      <c r="K46" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L46" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M46" s="152" t="s">
+      <c r="L46" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M46" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10995,13 +12415,13 @@
       <c r="J47" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="185" t="s">
+      <c r="K47" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L47" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M47" s="152" t="s">
+      <c r="L47" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M47" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11026,13 +12446,13 @@
       <c r="J48" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K48" s="185" t="s">
+      <c r="K48" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L48" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M48" s="152" t="s">
+      <c r="L48" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M48" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11057,13 +12477,13 @@
       <c r="J49" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K49" s="185" t="s">
+      <c r="K49" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L49" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M49" s="152" t="s">
+      <c r="L49" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M49" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11088,13 +12508,13 @@
       <c r="J50" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K50" s="185" t="s">
+      <c r="K50" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L50" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M50" s="152" t="s">
+      <c r="L50" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M50" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11119,13 +12539,13 @@
       <c r="J51" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K51" s="185" t="s">
+      <c r="K51" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L51" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M51" s="152" t="s">
+      <c r="L51" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M51" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11150,13 +12570,13 @@
       <c r="J52" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K52" s="185" t="s">
+      <c r="K52" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L52" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M52" s="152" t="s">
+      <c r="L52" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M52" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11181,13 +12601,13 @@
       <c r="J53" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K53" s="185" t="s">
+      <c r="K53" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L53" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M53" s="152" t="s">
+      <c r="L53" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M53" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11212,13 +12632,13 @@
       <c r="J54" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K54" s="185" t="s">
+      <c r="K54" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L54" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M54" s="152" t="s">
+      <c r="L54" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M54" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11243,13 +12663,13 @@
       <c r="J55" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K55" s="185" t="s">
+      <c r="K55" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L55" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M55" s="152" t="s">
+      <c r="L55" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M55" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11271,16 +12691,16 @@
       <c r="I56" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="J56" s="231" t="s">
+      <c r="J56" s="192" t="s">
         <v>337</v>
       </c>
       <c r="K56" s="102" t="s">
         <v>339</v>
       </c>
-      <c r="L56" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M56" s="152" t="s">
+      <c r="L56" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M56" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11302,16 +12722,16 @@
       <c r="I57" s="116" t="s">
         <v>352</v>
       </c>
-      <c r="J57" s="231" t="s">
+      <c r="J57" s="192" t="s">
         <v>337</v>
       </c>
       <c r="K57" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="L57" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M57" s="152" t="s">
+      <c r="L57" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M57" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11333,16 +12753,16 @@
       <c r="I58" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="J58" s="231" t="s">
+      <c r="J58" s="192" t="s">
         <v>337</v>
       </c>
       <c r="K58" s="102" t="s">
         <v>341</v>
       </c>
-      <c r="L58" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M58" s="152" t="s">
+      <c r="L58" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M58" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11370,10 +12790,10 @@
       <c r="K59" s="102" t="s">
         <v>340</v>
       </c>
-      <c r="L59" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M59" s="152" t="s">
+      <c r="L59" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M59" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11401,10 +12821,10 @@
       <c r="K60" s="102" t="s">
         <v>342</v>
       </c>
-      <c r="L60" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M60" s="152" t="s">
+      <c r="L60" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M60" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11432,41 +12852,41 @@
       <c r="K61" s="102" t="s">
         <v>343</v>
       </c>
-      <c r="L61" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M61" s="152" t="s">
+      <c r="L61" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M61" s="151" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="C62" s="16"/>
-      <c r="E62" s="165">
+      <c r="E62" s="162">
         <v>55</v>
       </c>
       <c r="F62" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="169" t="s">
+      <c r="G62" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="166" t="s">
+      <c r="H62" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="167" t="s">
+      <c r="I62" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="170" t="s">
+      <c r="J62" s="167" t="s">
         <v>335</v>
       </c>
       <c r="K62" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="L62" s="189">
-        <v>43962</v>
-      </c>
-      <c r="M62" s="153" t="s">
+      <c r="L62" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M62" s="152" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11494,17 +12914,17 @@
       <c r="K63" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="L63" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M63" s="152" t="s">
+      <c r="L63" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M63" s="151" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="14"/>
       <c r="C64" s="16"/>
-      <c r="E64" s="168">
+      <c r="E64" s="165">
         <v>57</v>
       </c>
       <c r="F64" s="100" t="s">
@@ -11513,29 +12933,29 @@
       <c r="G64" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="170" t="s">
+      <c r="H64" s="167" t="s">
         <v>291</v>
       </c>
-      <c r="I64" s="171" t="s">
+      <c r="I64" s="168" t="s">
         <v>293</v>
       </c>
-      <c r="J64" s="170" t="s">
+      <c r="J64" s="167" t="s">
         <v>335</v>
       </c>
       <c r="K64" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="L64" s="189">
-        <v>43962</v>
-      </c>
-      <c r="M64" s="153" t="s">
+      <c r="L64" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M64" s="152" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="14"/>
       <c r="C65" s="16"/>
-      <c r="E65" s="168">
+      <c r="E65" s="165">
         <v>58</v>
       </c>
       <c r="F65" s="100" t="s">
@@ -11544,22 +12964,22 @@
       <c r="G65" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="170" t="s">
+      <c r="H65" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="I65" s="171" t="s">
+      <c r="I65" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="J65" s="170" t="s">
+      <c r="J65" s="167" t="s">
         <v>335</v>
       </c>
       <c r="K65" s="100" t="s">
         <v>346</v>
       </c>
-      <c r="L65" s="189">
-        <v>43962</v>
-      </c>
-      <c r="M65" s="153" t="s">
+      <c r="L65" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M65" s="152" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11575,22 +12995,22 @@
       <c r="G66" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="173" t="s">
+      <c r="H66" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="I66" s="172" t="s">
+      <c r="I66" s="169" t="s">
         <v>295</v>
       </c>
-      <c r="J66" s="173" t="s">
+      <c r="J66" s="170" t="s">
         <v>335</v>
       </c>
       <c r="K66" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="L66" s="190">
-        <v>43962</v>
-      </c>
-      <c r="M66" s="154" t="s">
+      <c r="L66" s="186">
+        <v>43962</v>
+      </c>
+      <c r="M66" s="153" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11648,11 +13068,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="216"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -11668,9 +13088,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -11678,10 +13098,10 @@
         <v>59</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="189" t="s">
         <v>348</v>
       </c>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="189" t="s">
         <v>356</v>
       </c>
       <c r="L3" s="33"/>
@@ -11690,18 +13110,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="187" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="188">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -11727,7 +13147,7 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="176" t="s">
         <v>322</v>
       </c>
       <c r="F7" s="57" t="s">
@@ -11745,10 +13165,10 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="151" t="s">
+      <c r="K7" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="M7" s="62" t="s">
@@ -11773,16 +13193,16 @@
       <c r="I8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="190" t="s">
         <v>335</v>
       </c>
-      <c r="K8" s="185" t="s">
+      <c r="K8" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L8" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="182" t="s">
+      <c r="L8" s="180">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="178" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11804,16 +13224,16 @@
       <c r="I9" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="230" t="s">
+      <c r="J9" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L9" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="183" t="s">
+      <c r="L9" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="179" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11835,16 +13255,16 @@
       <c r="I10" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="K10" s="185" t="s">
+      <c r="K10" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L10" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="183" t="s">
+      <c r="L10" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="179" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11866,16 +13286,16 @@
       <c r="I11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="230" t="s">
+      <c r="J11" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="K11" s="185" t="s">
+      <c r="K11" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L11" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="183" t="s">
+      <c r="L11" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="179" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11900,13 +13320,13 @@
       <c r="J12" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K12" s="185" t="s">
+      <c r="K12" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="152" t="s">
+      <c r="L12" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11931,13 +13351,13 @@
       <c r="J13" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K13" s="185" t="s">
+      <c r="K13" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L13" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="152" t="s">
+      <c r="L13" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11962,13 +13382,13 @@
       <c r="J14" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="185" t="s">
+      <c r="K14" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L14" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="152" t="s">
+      <c r="L14" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11993,13 +13413,13 @@
       <c r="J15" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K15" s="185" t="s">
+      <c r="K15" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L15" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="152" t="s">
+      <c r="L15" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12024,13 +13444,13 @@
       <c r="J16" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K16" s="185" t="s">
+      <c r="K16" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L16" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="152" t="s">
+      <c r="L16" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12055,13 +13475,13 @@
       <c r="J17" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L17" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="152" t="s">
+      <c r="L17" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12086,13 +13506,13 @@
       <c r="J18" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="185" t="s">
+      <c r="K18" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L18" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="152" t="s">
+      <c r="L18" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12117,13 +13537,13 @@
       <c r="J19" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K19" s="185" t="s">
+      <c r="K19" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L19" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="152" t="s">
+      <c r="L19" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12148,13 +13568,13 @@
       <c r="J20" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K20" s="185" t="s">
+      <c r="K20" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L20" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="152" t="s">
+      <c r="L20" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12179,13 +13599,13 @@
       <c r="J21" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K21" s="185" t="s">
+      <c r="K21" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L21" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="152" t="s">
+      <c r="L21" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12210,13 +13630,13 @@
       <c r="J22" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K22" s="185" t="s">
+      <c r="K22" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L22" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="152" t="s">
+      <c r="L22" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12241,13 +13661,13 @@
       <c r="J23" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K23" s="185" t="s">
+      <c r="K23" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L23" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="152" t="s">
+      <c r="L23" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12272,13 +13692,13 @@
       <c r="J24" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K24" s="185" t="s">
+      <c r="K24" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L24" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="152" t="s">
+      <c r="L24" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12303,13 +13723,13 @@
       <c r="J25" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K25" s="185" t="s">
+      <c r="K25" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L25" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="152" t="s">
+      <c r="L25" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12334,13 +13754,13 @@
       <c r="J26" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K26" s="185" t="s">
+      <c r="K26" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L26" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="152" t="s">
+      <c r="L26" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12365,13 +13785,13 @@
       <c r="J27" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K27" s="185" t="s">
+      <c r="K27" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L27" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="152" t="s">
+      <c r="L27" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12396,13 +13816,13 @@
       <c r="J28" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="185" t="s">
+      <c r="K28" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L28" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="152" t="s">
+      <c r="L28" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12427,13 +13847,13 @@
       <c r="J29" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K29" s="185" t="s">
+      <c r="K29" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L29" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="152" t="s">
+      <c r="L29" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12458,13 +13878,13 @@
       <c r="J30" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K30" s="185" t="s">
+      <c r="K30" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L30" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="152" t="s">
+      <c r="L30" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12489,13 +13909,13 @@
       <c r="J31" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K31" s="185" t="s">
+      <c r="K31" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L31" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="152" t="s">
+      <c r="L31" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12520,13 +13940,13 @@
       <c r="J32" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K32" s="185" t="s">
+      <c r="K32" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L32" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="152" t="s">
+      <c r="L32" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12551,13 +13971,13 @@
       <c r="J33" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L33" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="152" t="s">
+      <c r="L33" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12582,13 +14002,13 @@
       <c r="J34" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K34" s="185" t="s">
+      <c r="K34" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L34" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="152" t="s">
+      <c r="L34" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12613,13 +14033,13 @@
       <c r="J35" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K35" s="185" t="s">
+      <c r="K35" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L35" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="152" t="s">
+      <c r="L35" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12644,13 +14064,13 @@
       <c r="J36" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K36" s="185" t="s">
+      <c r="K36" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L36" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="152" t="s">
+      <c r="L36" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12675,13 +14095,13 @@
       <c r="J37" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L37" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="152" t="s">
+      <c r="L37" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12706,13 +14126,13 @@
       <c r="J38" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K38" s="185" t="s">
+      <c r="K38" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L38" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="152" t="s">
+      <c r="L38" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12737,13 +14157,13 @@
       <c r="J39" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K39" s="185" t="s">
+      <c r="K39" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L39" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="152" t="s">
+      <c r="L39" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12768,13 +14188,13 @@
       <c r="J40" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K40" s="185" t="s">
+      <c r="K40" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L40" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="152" t="s">
+      <c r="L40" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12799,13 +14219,13 @@
       <c r="J41" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K41" s="185" t="s">
+      <c r="K41" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L41" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="152" t="s">
+      <c r="L41" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12830,13 +14250,13 @@
       <c r="J42" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K42" s="185" t="s">
+      <c r="K42" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L42" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="152" t="s">
+      <c r="L42" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12861,13 +14281,13 @@
       <c r="J43" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K43" s="185" t="s">
+      <c r="K43" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L43" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="152" t="s">
+      <c r="L43" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12892,13 +14312,13 @@
       <c r="J44" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K44" s="185" t="s">
+      <c r="K44" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L44" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M44" s="152" t="s">
+      <c r="L44" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M44" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12923,13 +14343,13 @@
       <c r="J45" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K45" s="185" t="s">
+      <c r="K45" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L45" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M45" s="152" t="s">
+      <c r="L45" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M45" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12954,13 +14374,13 @@
       <c r="J46" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K46" s="185" t="s">
+      <c r="K46" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L46" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M46" s="152" t="s">
+      <c r="L46" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M46" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -12985,13 +14405,13 @@
       <c r="J47" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="185" t="s">
+      <c r="K47" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L47" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M47" s="152" t="s">
+      <c r="L47" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M47" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13016,13 +14436,13 @@
       <c r="J48" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K48" s="185" t="s">
+      <c r="K48" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L48" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M48" s="152" t="s">
+      <c r="L48" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M48" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13047,13 +14467,13 @@
       <c r="J49" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K49" s="185" t="s">
+      <c r="K49" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L49" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M49" s="152" t="s">
+      <c r="L49" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M49" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13078,13 +14498,13 @@
       <c r="J50" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K50" s="185" t="s">
+      <c r="K50" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L50" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M50" s="152" t="s">
+      <c r="L50" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M50" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13109,13 +14529,13 @@
       <c r="J51" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K51" s="185" t="s">
+      <c r="K51" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L51" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M51" s="152" t="s">
+      <c r="L51" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M51" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13140,13 +14560,13 @@
       <c r="J52" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K52" s="185" t="s">
+      <c r="K52" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L52" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M52" s="152" t="s">
+      <c r="L52" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M52" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13171,13 +14591,13 @@
       <c r="J53" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K53" s="185" t="s">
+      <c r="K53" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L53" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M53" s="152" t="s">
+      <c r="L53" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M53" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13202,13 +14622,13 @@
       <c r="J54" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K54" s="185" t="s">
+      <c r="K54" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L54" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M54" s="152" t="s">
+      <c r="L54" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M54" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13233,13 +14653,13 @@
       <c r="J55" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="K55" s="185" t="s">
+      <c r="K55" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L55" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M55" s="152" t="s">
+      <c r="L55" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M55" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13267,10 +14687,10 @@
       <c r="K56" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="L56" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M56" s="152" t="s">
+      <c r="L56" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M56" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13298,10 +14718,10 @@
       <c r="K57" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="L57" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M57" s="152" t="s">
+      <c r="L57" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M57" s="151" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13329,41 +14749,41 @@
       <c r="K58" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="L58" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M58" s="152" t="s">
+      <c r="L58" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M58" s="151" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="14"/>
       <c r="C59" s="16"/>
-      <c r="E59" s="165">
+      <c r="E59" s="162">
         <v>111</v>
       </c>
       <c r="F59" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="169" t="s">
+      <c r="G59" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="166" t="s">
+      <c r="H59" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="167" t="s">
+      <c r="I59" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="170" t="s">
+      <c r="J59" s="167" t="s">
         <v>335</v>
       </c>
       <c r="K59" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="L59" s="189">
-        <v>43962</v>
-      </c>
-      <c r="M59" s="153" t="s">
+      <c r="L59" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M59" s="152" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13391,17 +14811,17 @@
       <c r="K60" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="L60" s="188">
-        <v>43962</v>
-      </c>
-      <c r="M60" s="152" t="s">
+      <c r="L60" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M60" s="151" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
       <c r="C61" s="16"/>
-      <c r="E61" s="168">
+      <c r="E61" s="165">
         <v>113</v>
       </c>
       <c r="F61" s="100" t="s">
@@ -13410,29 +14830,29 @@
       <c r="G61" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="170" t="s">
+      <c r="H61" s="167" t="s">
         <v>291</v>
       </c>
-      <c r="I61" s="171" t="s">
+      <c r="I61" s="168" t="s">
         <v>293</v>
       </c>
-      <c r="J61" s="170" t="s">
+      <c r="J61" s="167" t="s">
         <v>335</v>
       </c>
       <c r="K61" s="100" t="s">
         <v>361</v>
       </c>
-      <c r="L61" s="189">
-        <v>43962</v>
-      </c>
-      <c r="M61" s="153" t="s">
+      <c r="L61" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M61" s="152" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="C62" s="16"/>
-      <c r="E62" s="168">
+      <c r="E62" s="165">
         <v>114</v>
       </c>
       <c r="F62" s="100" t="s">
@@ -13441,22 +14861,22 @@
       <c r="G62" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="170" t="s">
+      <c r="H62" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="I62" s="171" t="s">
+      <c r="I62" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="J62" s="170" t="s">
+      <c r="J62" s="167" t="s">
         <v>335</v>
       </c>
       <c r="K62" s="100" t="s">
         <v>362</v>
       </c>
-      <c r="L62" s="189">
-        <v>43962</v>
-      </c>
-      <c r="M62" s="153" t="s">
+      <c r="L62" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M62" s="152" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13472,22 +14892,22 @@
       <c r="G63" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="173" t="s">
+      <c r="H63" s="170" t="s">
         <v>296</v>
       </c>
-      <c r="I63" s="172" t="s">
+      <c r="I63" s="169" t="s">
         <v>295</v>
       </c>
-      <c r="J63" s="173" t="s">
+      <c r="J63" s="170" t="s">
         <v>335</v>
       </c>
       <c r="K63" s="104" t="s">
         <v>363</v>
       </c>
-      <c r="L63" s="190">
-        <v>43962</v>
-      </c>
-      <c r="M63" s="154" t="s">
+      <c r="L63" s="186">
+        <v>43962</v>
+      </c>
+      <c r="M63" s="153" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13510,7 +14930,7 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="E37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:K4"/>
     </sheetView>
   </sheetViews>
@@ -13535,11 +14955,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="214" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="216"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -13555,9 +14975,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -13565,10 +14985,10 @@
         <v>147</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="189" t="s">
         <v>348</v>
       </c>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="189" t="s">
         <v>356</v>
       </c>
       <c r="L3" s="33"/>
@@ -13577,18 +14997,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="187" t="s">
         <v>381</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="188">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -13614,7 +15034,7 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="176" t="s">
         <v>323</v>
       </c>
       <c r="F7" s="57" t="s">
@@ -13632,10 +15052,10 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="151" t="s">
+      <c r="K7" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="M7" s="62" t="s">
@@ -13660,16 +15080,16 @@
       <c r="I8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K8" s="185" t="s">
+      <c r="K8" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L8" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="182" t="s">
+      <c r="L8" s="180">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13691,16 +15111,16 @@
       <c r="I9" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="229" t="s">
+      <c r="J9" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L9" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="182" t="s">
+      <c r="L9" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13722,16 +15142,16 @@
       <c r="I10" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="229" t="s">
+      <c r="J10" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K10" s="185" t="s">
+      <c r="K10" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L10" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="183" t="s">
+      <c r="L10" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="179" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13753,16 +15173,16 @@
       <c r="I11" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="229" t="s">
+      <c r="J11" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K11" s="185" t="s">
+      <c r="K11" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L11" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="183" t="s">
+      <c r="L11" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="179" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13784,16 +15204,16 @@
       <c r="I12" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="229" t="s">
+      <c r="J12" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K12" s="185" t="s">
+      <c r="K12" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L12" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="152" t="s">
+      <c r="L12" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13815,16 +15235,16 @@
       <c r="I13" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="229" t="s">
+      <c r="J13" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K13" s="185" t="s">
+      <c r="K13" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L13" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="152" t="s">
+      <c r="L13" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13846,16 +15266,16 @@
       <c r="I14" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="229" t="s">
+      <c r="J14" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K14" s="185" t="s">
+      <c r="K14" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L14" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="152" t="s">
+      <c r="L14" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13877,16 +15297,16 @@
       <c r="I15" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="229" t="s">
+      <c r="J15" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K15" s="185" t="s">
+      <c r="K15" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L15" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="152" t="s">
+      <c r="L15" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13908,16 +15328,16 @@
       <c r="I16" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="229" t="s">
+      <c r="J16" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="185" t="s">
+      <c r="K16" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L16" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="152" t="s">
+      <c r="L16" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13939,16 +15359,16 @@
       <c r="I17" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="229" t="s">
+      <c r="J17" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L17" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="152" t="s">
+      <c r="L17" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13970,16 +15390,16 @@
       <c r="I18" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="229" t="s">
+      <c r="J18" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K18" s="185" t="s">
+      <c r="K18" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L18" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="152" t="s">
+      <c r="L18" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14001,16 +15421,16 @@
       <c r="I19" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="229" t="s">
+      <c r="J19" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K19" s="185" t="s">
+      <c r="K19" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L19" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="152" t="s">
+      <c r="L19" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14032,16 +15452,16 @@
       <c r="I20" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="229" t="s">
+      <c r="J20" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K20" s="185" t="s">
+      <c r="K20" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L20" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="152" t="s">
+      <c r="L20" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14063,16 +15483,16 @@
       <c r="I21" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="229" t="s">
+      <c r="J21" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K21" s="185" t="s">
+      <c r="K21" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L21" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="152" t="s">
+      <c r="L21" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14094,16 +15514,16 @@
       <c r="I22" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="229" t="s">
+      <c r="J22" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K22" s="185" t="s">
+      <c r="K22" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L22" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="152" t="s">
+      <c r="L22" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14125,16 +15545,16 @@
       <c r="I23" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="229" t="s">
+      <c r="J23" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K23" s="185" t="s">
+      <c r="K23" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L23" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="152" t="s">
+      <c r="L23" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14156,16 +15576,16 @@
       <c r="I24" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="229" t="s">
+      <c r="J24" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K24" s="185" t="s">
+      <c r="K24" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L24" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="152" t="s">
+      <c r="L24" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14187,16 +15607,16 @@
       <c r="I25" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="229" t="s">
+      <c r="J25" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K25" s="185" t="s">
+      <c r="K25" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L25" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="152" t="s">
+      <c r="L25" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14218,16 +15638,16 @@
       <c r="I26" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="229" t="s">
+      <c r="J26" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K26" s="185" t="s">
+      <c r="K26" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L26" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="152" t="s">
+      <c r="L26" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14249,16 +15669,16 @@
       <c r="I27" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="229" t="s">
+      <c r="J27" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K27" s="185" t="s">
+      <c r="K27" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L27" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="152" t="s">
+      <c r="L27" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14280,16 +15700,16 @@
       <c r="I28" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="229" t="s">
+      <c r="J28" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K28" s="185" t="s">
+      <c r="K28" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L28" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="152" t="s">
+      <c r="L28" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14311,16 +15731,16 @@
       <c r="I29" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="229" t="s">
+      <c r="J29" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K29" s="185" t="s">
+      <c r="K29" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L29" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="152" t="s">
+      <c r="L29" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14342,16 +15762,16 @@
       <c r="I30" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="229" t="s">
+      <c r="J30" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K30" s="185" t="s">
+      <c r="K30" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L30" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="152" t="s">
+      <c r="L30" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14373,16 +15793,16 @@
       <c r="I31" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="229" t="s">
+      <c r="J31" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K31" s="185" t="s">
+      <c r="K31" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L31" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="152" t="s">
+      <c r="L31" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14404,16 +15824,16 @@
       <c r="I32" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="229" t="s">
+      <c r="J32" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K32" s="185" t="s">
+      <c r="K32" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L32" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="152" t="s">
+      <c r="L32" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14435,16 +15855,16 @@
       <c r="I33" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="229" t="s">
+      <c r="J33" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L33" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="152" t="s">
+      <c r="L33" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14466,16 +15886,16 @@
       <c r="I34" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="229" t="s">
+      <c r="J34" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K34" s="185" t="s">
+      <c r="K34" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L34" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="152" t="s">
+      <c r="L34" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14497,16 +15917,16 @@
       <c r="I35" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J35" s="229" t="s">
+      <c r="J35" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K35" s="185" t="s">
+      <c r="K35" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L35" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="152" t="s">
+      <c r="L35" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14528,16 +15948,16 @@
       <c r="I36" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="229" t="s">
+      <c r="J36" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K36" s="185" t="s">
+      <c r="K36" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L36" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="152" t="s">
+      <c r="L36" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14559,16 +15979,16 @@
       <c r="I37" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="229" t="s">
+      <c r="J37" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L37" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="152" t="s">
+      <c r="L37" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14590,16 +16010,16 @@
       <c r="I38" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="229" t="s">
+      <c r="J38" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K38" s="185" t="s">
+      <c r="K38" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L38" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="152" t="s">
+      <c r="L38" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14621,16 +16041,16 @@
       <c r="I39" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="229" t="s">
+      <c r="J39" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K39" s="185" t="s">
+      <c r="K39" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="152" t="s">
+      <c r="L39" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14652,16 +16072,16 @@
       <c r="I40" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="229" t="s">
+      <c r="J40" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K40" s="185" t="s">
+      <c r="K40" s="181" t="s">
         <v>368</v>
       </c>
-      <c r="L40" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="152" t="s">
+      <c r="L40" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14683,16 +16103,16 @@
       <c r="I41" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="231" t="s">
+      <c r="J41" s="192" t="s">
         <v>370</v>
       </c>
       <c r="K41" s="102" t="s">
         <v>372</v>
       </c>
-      <c r="L41" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="152" t="s">
+      <c r="L41" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14714,16 +16134,16 @@
       <c r="I42" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="231" t="s">
+      <c r="J42" s="192" t="s">
         <v>370</v>
       </c>
       <c r="K42" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="L42" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="152" t="s">
+      <c r="L42" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14745,16 +16165,16 @@
       <c r="I43" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="231" t="s">
+      <c r="J43" s="192" t="s">
         <v>370</v>
       </c>
       <c r="K43" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="L43" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="152" t="s">
+      <c r="L43" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14776,16 +16196,16 @@
       <c r="I44" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J44" s="187" t="s">
+      <c r="J44" s="183" t="s">
         <v>379</v>
       </c>
       <c r="K44" s="102" t="s">
         <v>373</v>
       </c>
-      <c r="L44" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M44" s="152" t="s">
+      <c r="L44" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M44" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14813,10 +16233,10 @@
       <c r="K45" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="L45" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M45" s="152" t="s">
+      <c r="L45" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M45" s="151" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14838,16 +16258,16 @@
       <c r="I46" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="J46" s="232" t="s">
+      <c r="J46" s="193" t="s">
         <v>371</v>
       </c>
       <c r="K46" s="104" t="s">
         <v>375</v>
       </c>
-      <c r="L46" s="233">
-        <v>43962</v>
-      </c>
-      <c r="M46" s="154" t="s">
+      <c r="L46" s="194">
+        <v>43962</v>
+      </c>
+      <c r="M46" s="153" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14890,7 +16310,7 @@
   </sheetPr>
   <dimension ref="B1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="E25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -14915,11 +16335,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="214" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="216"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -14935,9 +16355,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="219"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -14945,10 +16365,10 @@
         <v>146</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="189" t="s">
         <v>348</v>
       </c>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="189" t="s">
         <v>356</v>
       </c>
       <c r="L3" s="33"/>
@@ -14957,18 +16377,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="187" t="s">
         <v>349</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="188">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -14994,7 +16414,7 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="176" t="s">
         <v>323</v>
       </c>
       <c r="F7" s="57" t="s">
@@ -15012,10 +16432,10 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="151" t="s">
+      <c r="K7" s="150" t="s">
         <v>298</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="M7" s="62" t="s">
@@ -15040,16 +16460,16 @@
       <c r="I8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K8" s="185" t="s">
+      <c r="K8" s="181" t="s">
         <v>383</v>
       </c>
-      <c r="L8" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="182" t="s">
+      <c r="L8" s="180">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15071,16 +16491,16 @@
       <c r="I9" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="229" t="s">
+      <c r="J9" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="182" t="s">
+      <c r="L9" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15102,16 +16522,16 @@
       <c r="I10" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="229" t="s">
+      <c r="J10" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K10" s="185" t="s">
+      <c r="K10" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="182" t="s">
+      <c r="L10" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15133,16 +16553,16 @@
       <c r="I11" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="229" t="s">
+      <c r="J11" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K11" s="185" t="s">
+      <c r="K11" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L11" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="182" t="s">
+      <c r="L11" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15164,16 +16584,16 @@
       <c r="I12" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="229" t="s">
+      <c r="J12" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K12" s="185" t="s">
+      <c r="K12" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L12" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="182" t="s">
+      <c r="L12" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15195,16 +16615,16 @@
       <c r="I13" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="229" t="s">
+      <c r="J13" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K13" s="185" t="s">
+      <c r="K13" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="182" t="s">
+      <c r="L13" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15226,16 +16646,16 @@
       <c r="I14" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="229" t="s">
+      <c r="J14" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K14" s="185" t="s">
+      <c r="K14" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L14" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="182" t="s">
+      <c r="L14" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15257,16 +16677,16 @@
       <c r="I15" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="229" t="s">
+      <c r="J15" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K15" s="185" t="s">
+      <c r="K15" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L15" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="182" t="s">
+      <c r="L15" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15288,16 +16708,16 @@
       <c r="I16" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="229" t="s">
+      <c r="J16" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="185" t="s">
+      <c r="K16" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="182" t="s">
+      <c r="L16" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15319,16 +16739,16 @@
       <c r="I17" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="229" t="s">
+      <c r="J17" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="182" t="s">
+      <c r="L17" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15350,16 +16770,16 @@
       <c r="I18" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="229" t="s">
+      <c r="J18" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K18" s="185" t="s">
+      <c r="K18" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L18" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="182" t="s">
+      <c r="L18" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15381,16 +16801,16 @@
       <c r="I19" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="229" t="s">
+      <c r="J19" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K19" s="185" t="s">
+      <c r="K19" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L19" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="182" t="s">
+      <c r="L19" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15412,16 +16832,16 @@
       <c r="I20" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="229" t="s">
+      <c r="J20" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K20" s="185" t="s">
+      <c r="K20" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L20" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="182" t="s">
+      <c r="L20" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15443,16 +16863,16 @@
       <c r="I21" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="229" t="s">
+      <c r="J21" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K21" s="185" t="s">
+      <c r="K21" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L21" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="182" t="s">
+      <c r="L21" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15474,16 +16894,16 @@
       <c r="I22" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="229" t="s">
+      <c r="J22" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K22" s="185" t="s">
+      <c r="K22" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L22" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="182" t="s">
+      <c r="L22" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15505,16 +16925,16 @@
       <c r="I23" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="229" t="s">
+      <c r="J23" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K23" s="185" t="s">
+      <c r="K23" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L23" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="182" t="s">
+      <c r="L23" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15536,16 +16956,16 @@
       <c r="I24" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="229" t="s">
+      <c r="J24" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K24" s="185" t="s">
+      <c r="K24" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L24" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="182" t="s">
+      <c r="L24" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15567,16 +16987,16 @@
       <c r="I25" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="229" t="s">
+      <c r="J25" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K25" s="185" t="s">
+      <c r="K25" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L25" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="182" t="s">
+      <c r="L25" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15598,16 +17018,16 @@
       <c r="I26" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="229" t="s">
+      <c r="J26" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K26" s="185" t="s">
+      <c r="K26" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L26" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="182" t="s">
+      <c r="L26" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15629,16 +17049,16 @@
       <c r="I27" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="229" t="s">
+      <c r="J27" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K27" s="185" t="s">
+      <c r="K27" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L27" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="182" t="s">
+      <c r="L27" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15660,16 +17080,16 @@
       <c r="I28" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="229" t="s">
+      <c r="J28" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K28" s="185" t="s">
+      <c r="K28" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L28" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="182" t="s">
+      <c r="L28" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15691,16 +17111,16 @@
       <c r="I29" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="229" t="s">
+      <c r="J29" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K29" s="185" t="s">
+      <c r="K29" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L29" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="182" t="s">
+      <c r="L29" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15722,16 +17142,16 @@
       <c r="I30" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="229" t="s">
+      <c r="J30" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K30" s="185" t="s">
+      <c r="K30" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L30" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="182" t="s">
+      <c r="L30" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15753,16 +17173,16 @@
       <c r="I31" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="229" t="s">
+      <c r="J31" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K31" s="185" t="s">
+      <c r="K31" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L31" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="182" t="s">
+      <c r="L31" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15784,16 +17204,16 @@
       <c r="I32" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="229" t="s">
+      <c r="J32" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K32" s="185" t="s">
+      <c r="K32" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L32" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="182" t="s">
+      <c r="L32" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15815,16 +17235,16 @@
       <c r="I33" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="229" t="s">
+      <c r="J33" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L33" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="182" t="s">
+      <c r="L33" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15846,16 +17266,16 @@
       <c r="I34" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="229" t="s">
+      <c r="J34" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K34" s="185" t="s">
+      <c r="K34" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L34" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="182" t="s">
+      <c r="L34" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15877,16 +17297,16 @@
       <c r="I35" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J35" s="229" t="s">
+      <c r="J35" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K35" s="185" t="s">
+      <c r="K35" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L35" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="182" t="s">
+      <c r="L35" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15908,16 +17328,16 @@
       <c r="I36" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="229" t="s">
+      <c r="J36" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K36" s="185" t="s">
+      <c r="K36" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L36" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="182" t="s">
+      <c r="L36" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15939,16 +17359,16 @@
       <c r="I37" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="229" t="s">
+      <c r="J37" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L37" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="182" t="s">
+      <c r="L37" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -15970,16 +17390,16 @@
       <c r="I38" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="229" t="s">
+      <c r="J38" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K38" s="185" t="s">
+      <c r="K38" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L38" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="182" t="s">
+      <c r="L38" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16001,16 +17421,16 @@
       <c r="I39" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="229" t="s">
+      <c r="J39" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K39" s="185" t="s">
+      <c r="K39" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L39" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="182" t="s">
+      <c r="L39" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16032,16 +17452,16 @@
       <c r="I40" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="229" t="s">
+      <c r="J40" s="190" t="s">
         <v>369</v>
       </c>
-      <c r="K40" s="185" t="s">
+      <c r="K40" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L40" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="182" t="s">
+      <c r="L40" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="178" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16063,16 +17483,16 @@
       <c r="I41" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J41" s="231" t="s">
+      <c r="J41" s="192" t="s">
         <v>382</v>
       </c>
-      <c r="K41" s="185" t="s">
+      <c r="K41" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L41" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="234" t="s">
+      <c r="L41" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="195" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16094,16 +17514,16 @@
       <c r="I42" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="231" t="s">
+      <c r="J42" s="192" t="s">
         <v>382</v>
       </c>
-      <c r="K42" s="185" t="s">
+      <c r="K42" s="181" t="s">
         <v>384</v>
       </c>
-      <c r="L42" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="234" t="s">
+      <c r="L42" s="182">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="195" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16125,16 +17545,16 @@
       <c r="I43" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="J43" s="232" t="s">
+      <c r="J43" s="193" t="s">
         <v>382</v>
       </c>
       <c r="K43" s="104" t="s">
         <v>384</v>
       </c>
-      <c r="L43" s="233">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="235" t="s">
+      <c r="L43" s="194">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="196" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16177,7 +17597,9 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16196,11 +17618,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="223" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
@@ -16214,9 +17636,9 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="214"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
@@ -16226,9 +17648,9 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="217"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="22" t="s">
         <v>2</v>
       </c>
@@ -16239,7 +17661,7 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="177" t="s">
         <v>321</v>
       </c>
       <c r="D6" s="70" t="s">
@@ -16257,10 +17679,10 @@
       <c r="H6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="175" t="s">
+      <c r="I6" s="171" t="s">
         <v>299</v>
       </c>
-      <c r="J6" s="151" t="s">
+      <c r="J6" s="241" t="s">
         <v>288</v>
       </c>
       <c r="K6" s="75" t="s">
@@ -16283,9 +17705,15 @@
       <c r="G7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="105"/>
+      <c r="H7" s="197" t="s">
+        <v>385</v>
+      </c>
+      <c r="I7" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J7" s="180">
+        <v>43964</v>
+      </c>
       <c r="K7" s="78"/>
     </row>
     <row r="8" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16304,9 +17732,15 @@
       <c r="G8" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="102"/>
+      <c r="H8" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I8" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J8" s="182">
+        <v>43964</v>
+      </c>
       <c r="K8" s="81"/>
     </row>
     <row r="9" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16325,9 +17759,15 @@
       <c r="G9" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="102"/>
+      <c r="H9" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J9" s="182">
+        <v>43964</v>
+      </c>
       <c r="K9" s="81"/>
     </row>
     <row r="10" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16346,9 +17786,15 @@
       <c r="G10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="102"/>
+      <c r="H10" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I10" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="182">
+        <v>43964</v>
+      </c>
       <c r="K10" s="81"/>
     </row>
     <row r="11" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16367,9 +17813,15 @@
       <c r="G11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="102"/>
+      <c r="H11" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" s="182">
+        <v>43964</v>
+      </c>
       <c r="K11" s="81"/>
     </row>
     <row r="12" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16388,9 +17840,15 @@
       <c r="G12" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="102"/>
+      <c r="H12" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" s="182">
+        <v>43964</v>
+      </c>
       <c r="K12" s="81"/>
     </row>
     <row r="13" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16409,12 +17867,18 @@
       <c r="G13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="102"/>
+      <c r="H13" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" s="182">
+        <v>43964</v>
+      </c>
       <c r="K13" s="81"/>
     </row>
-    <row r="14" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="122">
         <v>198</v>
       </c>
@@ -16430,12 +17894,18 @@
       <c r="G14" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="156"/>
+      <c r="H14" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I14" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14" s="182">
+        <v>43964</v>
+      </c>
       <c r="K14" s="81"/>
     </row>
-    <row r="15" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="122">
         <v>199</v>
       </c>
@@ -16451,9 +17921,15 @@
       <c r="G15" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="156"/>
+      <c r="H15" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I15" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J15" s="182">
+        <v>43964</v>
+      </c>
       <c r="K15" s="81"/>
     </row>
     <row r="16" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16472,9 +17948,15 @@
       <c r="G16" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="157"/>
+      <c r="H16" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I16" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J16" s="182">
+        <v>43964</v>
+      </c>
       <c r="K16" s="81"/>
     </row>
     <row r="17" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16493,9 +17975,15 @@
       <c r="G17" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="157"/>
+      <c r="H17" s="198" t="s">
+        <v>386</v>
+      </c>
+      <c r="I17" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J17" s="182">
+        <v>43964</v>
+      </c>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16514,9 +18002,15 @@
       <c r="G18" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="157"/>
+      <c r="H18" s="198" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J18" s="182">
+        <v>43964</v>
+      </c>
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16535,9 +18029,15 @@
       <c r="G19" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="157"/>
+      <c r="H19" s="198" t="s">
+        <v>388</v>
+      </c>
+      <c r="I19" s="202" t="s">
+        <v>390</v>
+      </c>
+      <c r="J19" s="182">
+        <v>43964</v>
+      </c>
       <c r="K19" s="81"/>
     </row>
     <row r="20" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16556,9 +18056,15 @@
       <c r="G20" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="157"/>
+      <c r="H20" s="198" t="s">
+        <v>388</v>
+      </c>
+      <c r="I20" s="202" t="s">
+        <v>390</v>
+      </c>
+      <c r="J20" s="182">
+        <v>43964</v>
+      </c>
       <c r="K20" s="81"/>
     </row>
     <row r="21" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16577,9 +18083,15 @@
       <c r="G21" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="157"/>
+      <c r="H21" s="198" t="s">
+        <v>388</v>
+      </c>
+      <c r="I21" s="202" t="s">
+        <v>390</v>
+      </c>
+      <c r="J21" s="182">
+        <v>43964</v>
+      </c>
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -16598,9 +18110,15 @@
       <c r="G22" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="157"/>
+      <c r="H22" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I22" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="J22" s="182">
+        <v>43964</v>
+      </c>
       <c r="K22" s="81"/>
     </row>
     <row r="23" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -16617,9 +18135,15 @@
         <v>170</v>
       </c>
       <c r="G23" s="95"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="157"/>
+      <c r="H23" s="198" t="s">
+        <v>385</v>
+      </c>
+      <c r="I23" s="202" t="s">
+        <v>391</v>
+      </c>
+      <c r="J23" s="182">
+        <v>43964</v>
+      </c>
       <c r="K23" s="81"/>
     </row>
     <row r="24" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -16636,9 +18160,15 @@
         <v>171</v>
       </c>
       <c r="G24" s="95"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="159"/>
+      <c r="H24" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="I24" s="204" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="182">
+        <v>43964</v>
+      </c>
       <c r="K24" s="85"/>
     </row>
     <row r="25" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -16655,9 +18185,15 @@
         <v>172</v>
       </c>
       <c r="G25" s="95"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="157"/>
+      <c r="H25" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="I25" s="202" t="s">
+        <v>393</v>
+      </c>
+      <c r="J25" s="182">
+        <v>43964</v>
+      </c>
       <c r="K25" s="85"/>
     </row>
     <row r="26" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -16674,9 +18210,15 @@
         <v>173</v>
       </c>
       <c r="G26" s="95"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="157"/>
+      <c r="H26" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="I26" s="202" t="s">
+        <v>394</v>
+      </c>
+      <c r="J26" s="182">
+        <v>43964</v>
+      </c>
       <c r="K26" s="85"/>
     </row>
     <row r="27" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -16695,9 +18237,15 @@
       <c r="G27" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="157"/>
+      <c r="H27" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="I27" s="202" t="s">
+        <v>395</v>
+      </c>
+      <c r="J27" s="182">
+        <v>43964</v>
+      </c>
       <c r="K27" s="85"/>
     </row>
     <row r="28" spans="2:11" s="20" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16716,12 +18264,18 @@
       <c r="G28" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="147"/>
-    </row>
-    <row r="29" spans="2:11" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="200" t="s">
+        <v>385</v>
+      </c>
+      <c r="I28" s="205" t="s">
+        <v>396</v>
+      </c>
+      <c r="J28" s="242">
+        <v>43964</v>
+      </c>
+      <c r="K28" s="146"/>
+    </row>
+    <row r="29" spans="2:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
         <v>49</v>
       </c>
@@ -16731,7 +18285,8 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="243"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.2">
@@ -16805,11 +18360,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="223" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
@@ -16823,9 +18378,9 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="214"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
@@ -16835,9 +18390,9 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="217"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="22" t="s">
         <v>2</v>
       </c>
@@ -16848,7 +18403,7 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="177" t="s">
         <v>321</v>
       </c>
       <c r="D6" s="70" t="s">
@@ -16866,10 +18421,10 @@
       <c r="H6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="175" t="s">
+      <c r="I6" s="171" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="151" t="s">
+      <c r="J6" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K6" s="75" t="s">
@@ -17041,7 +18596,7 @@
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
-      <c r="J14" s="156"/>
+      <c r="J14" s="155"/>
       <c r="K14" s="81"/>
     </row>
     <row r="15" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -17062,7 +18617,7 @@
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
-      <c r="J15" s="156"/>
+      <c r="J15" s="155"/>
       <c r="K15" s="81"/>
     </row>
     <row r="16" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17083,7 +18638,7 @@
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
-      <c r="J16" s="157"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="81"/>
     </row>
     <row r="17" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -17104,7 +18659,7 @@
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
-      <c r="J17" s="157"/>
+      <c r="J17" s="156"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -17125,7 +18680,7 @@
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="82"/>
-      <c r="J18" s="157"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="83"/>
     </row>
     <row r="19" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -17146,7 +18701,7 @@
       </c>
       <c r="H19" s="84"/>
       <c r="I19" s="84"/>
-      <c r="J19" s="157"/>
+      <c r="J19" s="156"/>
       <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -17167,7 +18722,7 @@
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
-      <c r="J20" s="157"/>
+      <c r="J20" s="156"/>
       <c r="K20" s="85"/>
     </row>
     <row r="21" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -17188,7 +18743,7 @@
       </c>
       <c r="H21" s="84"/>
       <c r="I21" s="84"/>
-      <c r="J21" s="157"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -17209,11 +18764,11 @@
       </c>
       <c r="H22" s="84"/>
       <c r="I22" s="84"/>
-      <c r="J22" s="157"/>
+      <c r="J22" s="156"/>
       <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:11" s="20" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="161">
+      <c r="C23" s="158">
         <v>229</v>
       </c>
       <c r="D23" s="104" t="s">
@@ -17222,7 +18777,7 @@
       <c r="E23" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="162" t="s">
+      <c r="F23" s="159" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="88" t="s">
@@ -17230,7 +18785,7 @@
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
-      <c r="J23" s="158"/>
+      <c r="J23" s="157"/>
       <c r="K23" s="89"/>
     </row>
     <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.2">
@@ -17298,7 +18853,9 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17317,11 +18874,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -17335,9 +18892,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="237"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -17351,9 +18908,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -17389,7 +18946,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="180" t="s">
+      <c r="C7" s="176" t="s">
         <v>324</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -17407,10 +18964,10 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="150" t="s">
         <v>298</v>
       </c>
-      <c r="J7" s="151" t="s">
+      <c r="J7" s="150" t="s">
         <v>288</v>
       </c>
       <c r="K7" s="62" t="s">
@@ -17565,7 +19122,7 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="163">
+      <c r="C15" s="160">
         <v>237</v>
       </c>
       <c r="D15" s="136" t="s">
@@ -17582,7 +19139,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="155"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/テスト仕様書/実装エクセル/テスト仕様書.xlsx
+++ b/テスト仕様書/実装エクセル/テスト仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -52,12 +52,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">目次!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="0" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="398">
   <si>
     <t>作成日</t>
   </si>
@@ -4722,25 +4721,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>「０」の状態で+/-ボタンを押しても何も起こらない事</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コト</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -5710,10 +5690,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>カンマがついていない</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>小さくなっていない</t>
     <rPh sb="0" eb="1">
       <t>チイ</t>
@@ -5750,6 +5726,27 @@
   </si>
   <si>
     <t>test_212</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>澤口</t>
+    <rPh sb="0" eb="2">
+      <t>サワグチ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カンマがついていない</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「０」の状態で+/-ボタンを押すと「-0」になること</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -6163,7 +6160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -6702,12 +6699,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7108,9 +7116,6 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7263,18 +7268,15 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="42" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="42" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="56" fontId="42" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="42" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="26" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="26" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -7381,14 +7383,29 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="26" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="26" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="42" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7627,32 +7644,32 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="212"/>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
+      <c r="A7" s="210"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
       <c r="G7" s="32"/>
       <c r="H7" s="3"/>
     </row>
@@ -7832,10 +7849,10 @@
       <c r="C27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="206" t="s">
+      <c r="D27" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="207"/>
+      <c r="E27" s="205"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -7845,10 +7862,10 @@
       <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="208" t="s">
+      <c r="D28" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="209"/>
+      <c r="E28" s="207"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -7872,11 +7889,11 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
@@ -7903,7 +7920,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7923,11 +7940,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -7941,9 +7958,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -7957,9 +7974,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -7995,8 +8012,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>321</v>
+      <c r="C7" s="175" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -8013,11 +8030,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -8025,7 +8042,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -8045,8 +8062,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>231</v>
+      <c r="C9" s="131">
+        <v>238</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -8066,8 +8083,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>232</v>
+      <c r="C10" s="131">
+        <v>239</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -8087,8 +8104,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>233</v>
+      <c r="C11" s="131">
+        <v>240</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -8108,8 +8125,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>234</v>
+      <c r="C12" s="131">
+        <v>241</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -8129,8 +8146,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>235</v>
+      <c r="C13" s="131">
+        <v>242</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -8150,8 +8167,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>236</v>
+      <c r="C14" s="131">
+        <v>243</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -8171,8 +8188,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>237</v>
+      <c r="C15" s="104">
+        <v>244</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>196</v>
@@ -8188,7 +8205,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8233,8 +8250,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8254,11 +8271,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -8272,9 +8289,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -8288,9 +8305,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -8326,8 +8343,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>325</v>
+      <c r="C7" s="175" t="s">
+        <v>324</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -8344,11 +8361,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -8356,7 +8373,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -8376,8 +8393,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>239</v>
+      <c r="C9" s="131">
+        <v>245</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -8397,8 +8414,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>240</v>
+      <c r="C10" s="131">
+        <v>246</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -8418,8 +8435,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>241</v>
+      <c r="C11" s="131">
+        <v>247</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -8439,8 +8456,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>242</v>
+      <c r="C12" s="131">
+        <v>248</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -8460,8 +8477,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>243</v>
+      <c r="C13" s="131">
+        <v>249</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -8481,8 +8498,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>244</v>
+      <c r="C14" s="131">
+        <v>250</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -8502,8 +8519,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>245</v>
+      <c r="C15" s="104">
+        <v>251</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>200</v>
@@ -8519,7 +8536,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8564,8 +8581,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8585,11 +8602,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -8603,9 +8620,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -8619,9 +8636,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -8657,8 +8674,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>321</v>
+      <c r="C7" s="175" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -8675,11 +8692,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -8687,7 +8704,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -8707,8 +8724,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>239</v>
+      <c r="C9" s="131">
+        <v>252</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -8728,8 +8745,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>240</v>
+      <c r="C10" s="131">
+        <v>253</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -8749,8 +8766,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>241</v>
+      <c r="C11" s="131">
+        <v>254</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -8770,8 +8787,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>242</v>
+      <c r="C12" s="131">
+        <v>255</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -8791,8 +8808,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>243</v>
+      <c r="C13" s="131">
+        <v>256</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -8812,8 +8829,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>244</v>
+      <c r="C14" s="131">
+        <v>257</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -8833,8 +8850,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>245</v>
+      <c r="C15" s="104">
+        <v>258</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>196</v>
@@ -8850,7 +8867,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8895,7 +8912,9 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8914,11 +8933,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -8932,9 +8951,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -8948,9 +8967,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -8986,8 +9005,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>326</v>
+      <c r="C7" s="175" t="s">
+        <v>325</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -9004,11 +9023,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -9016,7 +9035,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -9036,8 +9055,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>247</v>
+      <c r="C9" s="131">
+        <v>259</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -9057,8 +9076,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>248</v>
+      <c r="C10" s="131">
+        <v>260</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -9078,8 +9097,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>249</v>
+      <c r="C11" s="131">
+        <v>261</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -9099,8 +9118,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>250</v>
+      <c r="C12" s="131">
+        <v>262</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -9120,8 +9139,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>251</v>
+      <c r="C13" s="131">
+        <v>263</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -9141,8 +9160,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>252</v>
+      <c r="C14" s="131">
+        <v>264</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -9162,8 +9181,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>253</v>
+      <c r="C15" s="104">
+        <v>265</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>200</v>
@@ -9179,7 +9198,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9224,7 +9243,9 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9243,11 +9264,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -9261,9 +9282,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -9277,9 +9298,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -9315,8 +9336,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>321</v>
+      <c r="C7" s="175" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -9333,11 +9354,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -9345,7 +9366,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -9365,8 +9386,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>247</v>
+      <c r="C9" s="131">
+        <v>266</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -9386,8 +9407,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>248</v>
+      <c r="C10" s="131">
+        <v>267</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -9407,8 +9428,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>249</v>
+      <c r="C11" s="131">
+        <v>268</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -9428,8 +9449,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>250</v>
+      <c r="C12" s="131">
+        <v>269</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -9449,8 +9470,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>251</v>
+      <c r="C13" s="131">
+        <v>270</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -9470,8 +9491,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>252</v>
+      <c r="C14" s="131">
+        <v>271</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -9491,8 +9512,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>253</v>
+      <c r="C15" s="104">
+        <v>272</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>196</v>
@@ -9508,7 +9529,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9553,7 +9574,9 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9572,11 +9595,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -9590,9 +9613,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -9606,9 +9629,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -9644,8 +9667,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>327</v>
+      <c r="C7" s="175" t="s">
+        <v>326</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -9662,11 +9685,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -9674,7 +9697,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -9694,8 +9717,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>255</v>
+      <c r="C9" s="131">
+        <v>273</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -9715,8 +9738,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>256</v>
+      <c r="C10" s="131">
+        <v>274</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -9736,8 +9759,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>257</v>
+      <c r="C11" s="131">
+        <v>275</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -9757,8 +9780,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>258</v>
+      <c r="C12" s="131">
+        <v>276</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -9778,8 +9801,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>259</v>
+      <c r="C13" s="131">
+        <v>277</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -9799,8 +9822,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>260</v>
+      <c r="C14" s="131">
+        <v>278</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -9820,8 +9843,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>261</v>
+      <c r="C15" s="104">
+        <v>279</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>200</v>
@@ -9837,7 +9860,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9882,7 +9905,9 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9901,11 +9926,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -9919,9 +9944,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -9935,9 +9960,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -9973,8 +9998,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>321</v>
+      <c r="C7" s="175" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -9991,11 +10016,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -10003,7 +10028,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -10023,8 +10048,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>255</v>
+      <c r="C9" s="131">
+        <v>280</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -10044,8 +10069,8 @@
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>256</v>
+      <c r="C10" s="131">
+        <v>281</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -10065,8 +10090,8 @@
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>257</v>
+      <c r="C11" s="131">
+        <v>282</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -10086,8 +10111,8 @@
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>258</v>
+      <c r="C12" s="131">
+        <v>283</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -10107,8 +10132,8 @@
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>259</v>
+      <c r="C13" s="131">
+        <v>284</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -10128,8 +10153,8 @@
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="132">
-        <v>260</v>
+      <c r="C14" s="131">
+        <v>285</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>196</v>
@@ -10149,8 +10174,8 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
-        <v>261</v>
+      <c r="C15" s="104">
+        <v>286</v>
       </c>
       <c r="D15" s="136" t="s">
         <v>196</v>
@@ -10166,7 +10191,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10211,7 +10236,9 @@
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10230,11 +10257,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -10248,9 +10275,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -10264,9 +10291,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -10302,8 +10329,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>328</v>
+      <c r="C7" s="175" t="s">
+        <v>327</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -10320,11 +10347,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -10332,7 +10359,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -10348,12 +10375,12 @@
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="66"/>
-      <c r="J8" s="151"/>
+      <c r="J8" s="150"/>
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>263</v>
+      <c r="C9" s="131">
+        <v>287</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -10364,17 +10391,17 @@
       <c r="F9" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="146" t="s">
         <v>270</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="152"/>
+      <c r="J9" s="151"/>
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>264</v>
+      <c r="C10" s="131">
+        <v>288</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -10390,12 +10417,12 @@
       </c>
       <c r="H10" s="118"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="152"/>
+      <c r="J10" s="151"/>
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>265</v>
+      <c r="C11" s="131">
+        <v>289</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -10411,12 +10438,12 @@
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="152"/>
+      <c r="J11" s="151"/>
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="132">
-        <v>266</v>
+      <c r="C12" s="131">
+        <v>290</v>
       </c>
       <c r="D12" s="133" t="s">
         <v>204</v>
@@ -10432,12 +10459,12 @@
       </c>
       <c r="H12" s="118"/>
       <c r="I12" s="91"/>
-      <c r="J12" s="152"/>
+      <c r="J12" s="151"/>
       <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="132">
-        <v>267</v>
+      <c r="C13" s="131">
+        <v>291</v>
       </c>
       <c r="D13" s="133" t="s">
         <v>196</v>
@@ -10445,7 +10472,7 @@
       <c r="E13" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="148" t="s">
+      <c r="F13" s="147" t="s">
         <v>275</v>
       </c>
       <c r="G13" s="141" t="s">
@@ -10453,12 +10480,12 @@
       </c>
       <c r="H13" s="118"/>
       <c r="I13" s="91"/>
-      <c r="J13" s="152"/>
+      <c r="J13" s="151"/>
       <c r="K13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="160">
-        <v>268</v>
+      <c r="C14" s="104">
+        <v>292</v>
       </c>
       <c r="D14" s="136" t="s">
         <v>200</v>
@@ -10474,7 +10501,7 @@
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="69"/>
-      <c r="J14" s="153"/>
+      <c r="J14" s="152"/>
       <c r="K14" s="69"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10520,7 +10547,9 @@
   </sheetPr>
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10539,11 +10568,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -10557,9 +10586,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -10573,9 +10602,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -10611,8 +10640,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>328</v>
+      <c r="C7" s="175" t="s">
+        <v>327</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -10629,11 +10658,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -10641,7 +10670,7 @@
     </row>
     <row r="8" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="131">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D8" s="102" t="s">
         <v>50</v>
@@ -10657,12 +10686,12 @@
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="66"/>
-      <c r="J8" s="151"/>
+      <c r="J8" s="150"/>
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="132">
-        <v>270</v>
+      <c r="C9" s="131">
+        <v>293</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>196</v>
@@ -10673,17 +10702,17 @@
       <c r="F9" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="149" t="s">
-        <v>282</v>
+      <c r="G9" s="148" t="s">
+        <v>281</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="91"/>
-      <c r="J9" s="152"/>
+      <c r="J9" s="151"/>
       <c r="K9" s="91"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132">
-        <v>271</v>
+      <c r="C10" s="131">
+        <v>294</v>
       </c>
       <c r="D10" s="133" t="s">
         <v>204</v>
@@ -10692,19 +10721,19 @@
         <v>201</v>
       </c>
       <c r="F10" s="139" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="G10" s="140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" s="118"/>
       <c r="I10" s="91"/>
-      <c r="J10" s="152"/>
+      <c r="J10" s="151"/>
       <c r="K10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="132">
-        <v>272</v>
+      <c r="C11" s="131">
+        <v>295</v>
       </c>
       <c r="D11" s="133" t="s">
         <v>204</v>
@@ -10713,19 +10742,19 @@
         <v>201</v>
       </c>
       <c r="F11" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="141" t="s">
         <v>286</v>
-      </c>
-      <c r="G11" s="141" t="s">
-        <v>287</v>
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="152"/>
+      <c r="J11" s="151"/>
       <c r="K11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="160">
-        <v>273</v>
+      <c r="C12" s="104">
+        <v>296</v>
       </c>
       <c r="D12" s="136" t="s">
         <v>204</v>
@@ -10734,14 +10763,14 @@
         <v>201</v>
       </c>
       <c r="F12" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="160" t="s">
         <v>284</v>
-      </c>
-      <c r="G12" s="161" t="s">
-        <v>285</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="153"/>
+      <c r="J12" s="152"/>
       <c r="K12" s="69"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10808,20 +10837,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
@@ -10830,13 +10859,13 @@
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="H5" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="38"/>
@@ -10849,20 +10878,20 @@
       <c r="D6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="172" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="172"/>
-      <c r="H6" s="175" t="s">
-        <v>311</v>
+      <c r="E6" s="171" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="171"/>
+      <c r="H6" s="174" t="s">
+        <v>310</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="172" t="s">
-        <v>312</v>
-      </c>
-      <c r="K6" s="172"/>
+      <c r="J6" s="171" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="38" t="s">
@@ -10872,7 +10901,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" s="38"/>
       <c r="H7" s="38" t="s">
@@ -10882,7 +10911,7 @@
         <v>68</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K7" s="38"/>
     </row>
@@ -10895,26 +10924,26 @@
         <v>68</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
       <c r="H9" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="173"/>
+        <v>314</v>
+      </c>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="38" t="s">
@@ -10923,20 +10952,20 @@
       <c r="D10" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="172" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="172"/>
+      <c r="E10" s="171" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="171"/>
       <c r="H10" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I10" s="39" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="K10" s="172"/>
+        <v>315</v>
+      </c>
+      <c r="K10" s="171"/>
     </row>
     <row r="11" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="38" t="s">
@@ -10945,20 +10974,20 @@
       <c r="D11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="173" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="173"/>
+      <c r="E11" s="172" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="172"/>
       <c r="H11" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>68</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="K11" s="173"/>
+        <v>316</v>
+      </c>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="41"/>
@@ -10972,47 +11001,47 @@
     </row>
     <row r="13" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
       <c r="H13" s="42"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="174" t="s">
-        <v>306</v>
+      <c r="C14" s="173" t="s">
+        <v>305</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="173" t="s">
-        <v>307</v>
+      <c r="E14" s="172" t="s">
+        <v>306</v>
       </c>
       <c r="F14" s="44"/>
-      <c r="H14" s="174"/>
+      <c r="H14" s="173"/>
       <c r="I14" s="39"/>
-      <c r="J14" s="173"/>
+      <c r="J14" s="172"/>
       <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="174" t="s">
-        <v>309</v>
+      <c r="C15" s="173" t="s">
+        <v>308</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="173" t="s">
-        <v>308</v>
-      </c>
-      <c r="F15" s="173"/>
-      <c r="H15" s="174"/>
+      <c r="E15" s="172" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="172"/>
+      <c r="H15" s="173"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
     </row>
     <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="38"/>
@@ -11078,11 +11107,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="212" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="216"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -11098,9 +11127,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -11108,11 +11137,11 @@
         <v>59</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="189" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="189" t="s">
-        <v>356</v>
+      <c r="J3" s="188" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="188" t="s">
+        <v>355</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="9"/>
@@ -11120,18 +11149,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="187" t="s">
-        <v>349</v>
-      </c>
-      <c r="K4" s="188">
+      <c r="J4" s="186" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="187">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -11157,8 +11186,8 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="176" t="s">
-        <v>321</v>
+      <c r="E7" s="175" t="s">
+        <v>320</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>3</v>
@@ -11175,11 +11204,11 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="150" t="s">
-        <v>297</v>
-      </c>
-      <c r="L7" s="150" t="s">
-        <v>288</v>
+      <c r="K7" s="149" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="M7" s="62" t="s">
         <v>8</v>
@@ -11203,17 +11232,17 @@
       <c r="I8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="190" t="s">
+      <c r="J8" s="189" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K8" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="180">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="178" t="s">
-        <v>334</v>
+      <c r="L8" s="179">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="177" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11234,17 +11263,17 @@
       <c r="I9" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="190" t="s">
+      <c r="J9" s="189" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L9" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="179" t="s">
-        <v>334</v>
+      <c r="L9" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="178" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11265,17 +11294,17 @@
       <c r="I10" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="191" t="s">
+      <c r="J10" s="190" t="s">
+        <v>334</v>
+      </c>
+      <c r="K10" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K10" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L10" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="179" t="s">
-        <v>334</v>
+      <c r="L10" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="178" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11296,17 +11325,17 @@
       <c r="I11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="191" t="s">
+      <c r="J11" s="190" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K11" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L11" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="179" t="s">
-        <v>334</v>
+      <c r="L11" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="178" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11328,16 +11357,16 @@
         <v>11</v>
       </c>
       <c r="J12" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K12" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K12" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L12" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="151" t="s">
-        <v>334</v>
+      <c r="L12" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11359,16 +11388,16 @@
         <v>11</v>
       </c>
       <c r="J13" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K13" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L13" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="151" t="s">
-        <v>334</v>
+      <c r="L13" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11390,16 +11419,16 @@
         <v>11</v>
       </c>
       <c r="J14" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L14" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="151" t="s">
-        <v>334</v>
+      <c r="L14" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11421,16 +11450,16 @@
         <v>11</v>
       </c>
       <c r="J15" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K15" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K15" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L15" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="151" t="s">
-        <v>334</v>
+      <c r="L15" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11452,16 +11481,16 @@
         <v>11</v>
       </c>
       <c r="J16" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K16" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L16" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="151" t="s">
-        <v>334</v>
+      <c r="L16" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11483,16 +11512,16 @@
         <v>11</v>
       </c>
       <c r="J17" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L17" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="151" t="s">
-        <v>334</v>
+      <c r="L17" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11514,16 +11543,16 @@
         <v>11</v>
       </c>
       <c r="J18" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L18" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="151" t="s">
-        <v>334</v>
+      <c r="L18" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11545,16 +11574,16 @@
         <v>11</v>
       </c>
       <c r="J19" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K19" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K19" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L19" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="151" t="s">
-        <v>334</v>
+      <c r="L19" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11576,16 +11605,16 @@
         <v>11</v>
       </c>
       <c r="J20" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K20" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="151" t="s">
-        <v>334</v>
+      <c r="L20" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11607,16 +11636,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K21" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K21" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L21" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="151" t="s">
-        <v>334</v>
+      <c r="L21" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11638,16 +11667,16 @@
         <v>11</v>
       </c>
       <c r="J22" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K22" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K22" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L22" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="151" t="s">
-        <v>334</v>
+      <c r="L22" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11669,16 +11698,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K23" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L23" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="151" t="s">
-        <v>334</v>
+      <c r="L23" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11700,16 +11729,16 @@
         <v>11</v>
       </c>
       <c r="J24" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K24" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L24" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="151" t="s">
-        <v>334</v>
+      <c r="L24" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11731,16 +11760,16 @@
         <v>11</v>
       </c>
       <c r="J25" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K25" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K25" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L25" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="151" t="s">
-        <v>334</v>
+      <c r="L25" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11762,16 +11791,16 @@
         <v>11</v>
       </c>
       <c r="J26" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K26" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K26" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L26" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="151" t="s">
-        <v>334</v>
+      <c r="L26" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11793,16 +11822,16 @@
         <v>11</v>
       </c>
       <c r="J27" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K27" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K27" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L27" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="151" t="s">
-        <v>334</v>
+      <c r="L27" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11824,16 +11853,16 @@
         <v>11</v>
       </c>
       <c r="J28" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K28" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K28" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L28" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="151" t="s">
-        <v>334</v>
+      <c r="L28" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11855,16 +11884,16 @@
         <v>11</v>
       </c>
       <c r="J29" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K29" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L29" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="151" t="s">
-        <v>334</v>
+      <c r="L29" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11886,16 +11915,16 @@
         <v>11</v>
       </c>
       <c r="J30" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K30" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K30" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L30" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="151" t="s">
-        <v>334</v>
+      <c r="L30" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11917,16 +11946,16 @@
         <v>11</v>
       </c>
       <c r="J31" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K31" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K31" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L31" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="151" t="s">
-        <v>334</v>
+      <c r="L31" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11948,16 +11977,16 @@
         <v>11</v>
       </c>
       <c r="J32" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K32" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L32" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="151" t="s">
-        <v>334</v>
+      <c r="L32" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11979,16 +12008,16 @@
         <v>11</v>
       </c>
       <c r="J33" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K33" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K33" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L33" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="151" t="s">
-        <v>334</v>
+      <c r="L33" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12010,16 +12039,16 @@
         <v>11</v>
       </c>
       <c r="J34" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K34" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K34" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L34" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="151" t="s">
-        <v>334</v>
+      <c r="L34" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12041,16 +12070,16 @@
         <v>11</v>
       </c>
       <c r="J35" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K35" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K35" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L35" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="151" t="s">
-        <v>334</v>
+      <c r="L35" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12072,16 +12101,16 @@
         <v>11</v>
       </c>
       <c r="J36" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K36" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L36" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="151" t="s">
-        <v>334</v>
+      <c r="L36" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12103,16 +12132,16 @@
         <v>11</v>
       </c>
       <c r="J37" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K37" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L37" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="151" t="s">
-        <v>334</v>
+      <c r="L37" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12134,16 +12163,16 @@
         <v>11</v>
       </c>
       <c r="J38" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K38" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L38" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="151" t="s">
-        <v>334</v>
+      <c r="L38" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12165,16 +12194,16 @@
         <v>11</v>
       </c>
       <c r="J39" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K39" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L39" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="151" t="s">
-        <v>334</v>
+      <c r="L39" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12196,16 +12225,16 @@
         <v>11</v>
       </c>
       <c r="J40" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K40" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L40" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="151" t="s">
-        <v>334</v>
+      <c r="L40" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12227,16 +12256,16 @@
         <v>11</v>
       </c>
       <c r="J41" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K41" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L41" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="151" t="s">
-        <v>334</v>
+      <c r="L41" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12258,16 +12287,16 @@
         <v>11</v>
       </c>
       <c r="J42" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K42" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L42" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="151" t="s">
-        <v>334</v>
+      <c r="L42" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12289,16 +12318,16 @@
         <v>11</v>
       </c>
       <c r="J43" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K43" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L43" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="151" t="s">
-        <v>334</v>
+      <c r="L43" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12320,16 +12349,16 @@
         <v>11</v>
       </c>
       <c r="J44" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K44" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L44" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M44" s="151" t="s">
-        <v>334</v>
+      <c r="L44" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M44" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12351,16 +12380,16 @@
         <v>11</v>
       </c>
       <c r="J45" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K45" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L45" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M45" s="151" t="s">
-        <v>334</v>
+      <c r="L45" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M45" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12382,16 +12411,16 @@
         <v>11</v>
       </c>
       <c r="J46" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K46" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L46" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M46" s="151" t="s">
-        <v>334</v>
+      <c r="L46" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M46" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12413,16 +12442,16 @@
         <v>11</v>
       </c>
       <c r="J47" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L47" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M47" s="151" t="s">
-        <v>334</v>
+      <c r="L47" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M47" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12444,16 +12473,16 @@
         <v>11</v>
       </c>
       <c r="J48" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K48" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K48" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L48" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M48" s="151" t="s">
-        <v>334</v>
+      <c r="L48" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M48" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12475,16 +12504,16 @@
         <v>11</v>
       </c>
       <c r="J49" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K49" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L49" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M49" s="151" t="s">
-        <v>334</v>
+      <c r="L49" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M49" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12506,16 +12535,16 @@
         <v>11</v>
       </c>
       <c r="J50" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K50" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L50" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M50" s="151" t="s">
-        <v>334</v>
+      <c r="L50" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M50" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12537,16 +12566,16 @@
         <v>11</v>
       </c>
       <c r="J51" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K51" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L51" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M51" s="151" t="s">
-        <v>334</v>
+      <c r="L51" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M51" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12568,16 +12597,16 @@
         <v>11</v>
       </c>
       <c r="J52" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K52" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K52" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L52" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M52" s="151" t="s">
-        <v>334</v>
+      <c r="L52" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M52" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12599,16 +12628,16 @@
         <v>11</v>
       </c>
       <c r="J53" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K53" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K53" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L53" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M53" s="151" t="s">
-        <v>334</v>
+      <c r="L53" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M53" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12630,16 +12659,16 @@
         <v>11</v>
       </c>
       <c r="J54" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K54" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K54" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L54" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M54" s="151" t="s">
-        <v>334</v>
+      <c r="L54" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M54" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12661,16 +12690,16 @@
         <v>11</v>
       </c>
       <c r="J55" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="K55" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="K55" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="L55" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M55" s="151" t="s">
-        <v>334</v>
+      <c r="L55" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M55" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12689,19 +12718,19 @@
         <v>128</v>
       </c>
       <c r="I56" s="116" t="s">
-        <v>351</v>
-      </c>
-      <c r="J56" s="192" t="s">
-        <v>337</v>
+        <v>350</v>
+      </c>
+      <c r="J56" s="191" t="s">
+        <v>336</v>
       </c>
       <c r="K56" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="L56" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M56" s="151" t="s">
-        <v>334</v>
+        <v>338</v>
+      </c>
+      <c r="L56" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M56" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12720,19 +12749,19 @@
         <v>212</v>
       </c>
       <c r="I57" s="116" t="s">
-        <v>352</v>
-      </c>
-      <c r="J57" s="192" t="s">
+        <v>351</v>
+      </c>
+      <c r="J57" s="191" t="s">
+        <v>336</v>
+      </c>
+      <c r="K57" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="K57" s="102" t="s">
-        <v>338</v>
-      </c>
-      <c r="L57" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M57" s="151" t="s">
-        <v>334</v>
+      <c r="L57" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M57" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12751,19 +12780,19 @@
         <v>213</v>
       </c>
       <c r="I58" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="J58" s="192" t="s">
-        <v>337</v>
+        <v>352</v>
+      </c>
+      <c r="J58" s="191" t="s">
+        <v>336</v>
       </c>
       <c r="K58" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="L58" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M58" s="151" t="s">
-        <v>334</v>
+        <v>340</v>
+      </c>
+      <c r="L58" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M58" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12782,19 +12811,19 @@
         <v>127</v>
       </c>
       <c r="I59" s="116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J59" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K59" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="L59" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M59" s="151" t="s">
-        <v>334</v>
+        <v>339</v>
+      </c>
+      <c r="L59" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M59" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12816,16 +12845,16 @@
         <v>13</v>
       </c>
       <c r="J60" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K60" s="102" t="s">
-        <v>342</v>
-      </c>
-      <c r="L60" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M60" s="151" t="s">
-        <v>334</v>
+        <v>341</v>
+      </c>
+      <c r="L60" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M60" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12844,50 +12873,50 @@
         <v>15</v>
       </c>
       <c r="I61" s="116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J61" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K61" s="102" t="s">
-        <v>343</v>
-      </c>
-      <c r="L61" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M61" s="151" t="s">
-        <v>334</v>
+        <v>342</v>
+      </c>
+      <c r="L61" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M61" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="C62" s="16"/>
-      <c r="E62" s="162">
+      <c r="E62" s="161">
         <v>55</v>
       </c>
       <c r="F62" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="166" t="s">
+      <c r="G62" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="163" t="s">
+      <c r="H62" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="164" t="s">
+      <c r="I62" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="167" t="s">
-        <v>335</v>
+      <c r="J62" s="166" t="s">
+        <v>334</v>
       </c>
       <c r="K62" s="100" t="s">
-        <v>366</v>
-      </c>
-      <c r="L62" s="185">
-        <v>43962</v>
-      </c>
-      <c r="M62" s="152" t="s">
-        <v>334</v>
+        <v>365</v>
+      </c>
+      <c r="L62" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M62" s="151" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12903,28 +12932,28 @@
         <v>14</v>
       </c>
       <c r="H63" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="I63" s="114" t="s">
-        <v>290</v>
-      </c>
       <c r="J63" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K63" s="102" t="s">
-        <v>344</v>
-      </c>
-      <c r="L63" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M63" s="151" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="L63" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M63" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="14"/>
       <c r="C64" s="16"/>
-      <c r="E64" s="165">
+      <c r="E64" s="164">
         <v>57</v>
       </c>
       <c r="F64" s="100" t="s">
@@ -12933,29 +12962,29 @@
       <c r="G64" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="167" t="s">
-        <v>291</v>
-      </c>
-      <c r="I64" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="J64" s="167" t="s">
-        <v>335</v>
+      <c r="H64" s="166" t="s">
+        <v>290</v>
+      </c>
+      <c r="I64" s="167" t="s">
+        <v>292</v>
+      </c>
+      <c r="J64" s="166" t="s">
+        <v>334</v>
       </c>
       <c r="K64" s="100" t="s">
-        <v>345</v>
-      </c>
-      <c r="L64" s="185">
-        <v>43962</v>
-      </c>
-      <c r="M64" s="152" t="s">
-        <v>334</v>
+        <v>344</v>
+      </c>
+      <c r="L64" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M64" s="151" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="14"/>
       <c r="C65" s="16"/>
-      <c r="E65" s="165">
+      <c r="E65" s="164">
         <v>58</v>
       </c>
       <c r="F65" s="100" t="s">
@@ -12964,23 +12993,23 @@
       <c r="G65" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="167" t="s">
-        <v>292</v>
-      </c>
-      <c r="I65" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="J65" s="167" t="s">
-        <v>335</v>
+      <c r="H65" s="166" t="s">
+        <v>291</v>
+      </c>
+      <c r="I65" s="167" t="s">
+        <v>293</v>
+      </c>
+      <c r="J65" s="166" t="s">
+        <v>334</v>
       </c>
       <c r="K65" s="100" t="s">
-        <v>346</v>
-      </c>
-      <c r="L65" s="185">
-        <v>43962</v>
-      </c>
-      <c r="M65" s="152" t="s">
-        <v>334</v>
+        <v>345</v>
+      </c>
+      <c r="L65" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M65" s="151" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12995,23 +13024,23 @@
       <c r="G66" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="170" t="s">
-        <v>296</v>
-      </c>
-      <c r="I66" s="169" t="s">
+      <c r="H66" s="169" t="s">
         <v>295</v>
       </c>
-      <c r="J66" s="170" t="s">
-        <v>335</v>
+      <c r="I66" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="J66" s="169" t="s">
+        <v>334</v>
       </c>
       <c r="K66" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="L66" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M66" s="153" t="s">
-        <v>334</v>
+        <v>346</v>
+      </c>
+      <c r="L66" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M66" s="152" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13068,11 +13097,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="212" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="216"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -13088,9 +13117,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -13098,11 +13127,11 @@
         <v>59</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="189" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="189" t="s">
-        <v>356</v>
+      <c r="J3" s="188" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="188" t="s">
+        <v>355</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="9"/>
@@ -13110,18 +13139,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="187" t="s">
-        <v>364</v>
-      </c>
-      <c r="K4" s="188">
+      <c r="J4" s="186" t="s">
+        <v>363</v>
+      </c>
+      <c r="K4" s="187">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -13147,8 +13176,8 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="176" t="s">
-        <v>322</v>
+      <c r="E7" s="175" t="s">
+        <v>321</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>3</v>
@@ -13165,11 +13194,11 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="150" t="s">
-        <v>297</v>
-      </c>
-      <c r="L7" s="150" t="s">
-        <v>288</v>
+      <c r="K7" s="149" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="M7" s="62" t="s">
         <v>8</v>
@@ -13193,17 +13222,17 @@
       <c r="I8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="190" t="s">
-        <v>335</v>
-      </c>
-      <c r="K8" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L8" s="180">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="178" t="s">
+      <c r="J8" s="189" t="s">
         <v>334</v>
+      </c>
+      <c r="K8" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L8" s="179">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="177" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13224,17 +13253,17 @@
       <c r="I9" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="191" t="s">
-        <v>335</v>
-      </c>
-      <c r="K9" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="179" t="s">
+      <c r="J9" s="190" t="s">
         <v>334</v>
+      </c>
+      <c r="K9" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L9" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="178" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13255,17 +13284,17 @@
       <c r="I10" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="191" t="s">
-        <v>335</v>
-      </c>
-      <c r="K10" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L10" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="179" t="s">
+      <c r="J10" s="190" t="s">
         <v>334</v>
+      </c>
+      <c r="K10" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="178" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13286,17 +13315,17 @@
       <c r="I11" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="191" t="s">
-        <v>335</v>
-      </c>
-      <c r="K11" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L11" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="179" t="s">
+      <c r="J11" s="190" t="s">
         <v>334</v>
+      </c>
+      <c r="K11" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="178" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13318,16 +13347,16 @@
         <v>11</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K12" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L12" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K12" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L12" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13349,16 +13378,16 @@
         <v>11</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K13" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L13" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K13" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L13" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13380,16 +13409,16 @@
         <v>11</v>
       </c>
       <c r="J14" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K14" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L14" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K14" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13411,16 +13440,16 @@
         <v>11</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K15" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L15" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K15" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L15" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13442,16 +13471,16 @@
         <v>11</v>
       </c>
       <c r="J16" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K16" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L16" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K16" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L16" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13473,16 +13502,16 @@
         <v>11</v>
       </c>
       <c r="J17" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K17" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L17" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K17" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13504,16 +13533,16 @@
         <v>11</v>
       </c>
       <c r="J18" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K18" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L18" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K18" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L18" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13535,16 +13564,16 @@
         <v>11</v>
       </c>
       <c r="J19" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K19" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L19" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K19" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L19" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13566,16 +13595,16 @@
         <v>11</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K20" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L20" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K20" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13597,16 +13626,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K21" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L21" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K21" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L21" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13628,16 +13657,16 @@
         <v>11</v>
       </c>
       <c r="J22" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K22" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L22" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K22" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L22" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13659,16 +13688,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K23" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L23" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K23" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L23" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13690,16 +13719,16 @@
         <v>11</v>
       </c>
       <c r="J24" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K24" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L24" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K24" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13721,16 +13750,16 @@
         <v>11</v>
       </c>
       <c r="J25" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K25" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L25" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K25" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L25" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13752,16 +13781,16 @@
         <v>11</v>
       </c>
       <c r="J26" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K26" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K26" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L26" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13783,16 +13812,16 @@
         <v>11</v>
       </c>
       <c r="J27" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K27" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L27" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K27" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L27" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13814,16 +13843,16 @@
         <v>11</v>
       </c>
       <c r="J28" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K28" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L28" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K28" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L28" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13845,16 +13874,16 @@
         <v>11</v>
       </c>
       <c r="J29" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K29" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L29" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K29" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L29" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13876,16 +13905,16 @@
         <v>11</v>
       </c>
       <c r="J30" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K30" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L30" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K30" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L30" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13907,16 +13936,16 @@
         <v>11</v>
       </c>
       <c r="J31" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K31" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L31" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K31" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L31" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13938,16 +13967,16 @@
         <v>11</v>
       </c>
       <c r="J32" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K32" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L32" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K32" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L32" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13969,16 +13998,16 @@
         <v>11</v>
       </c>
       <c r="J33" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K33" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L33" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K33" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L33" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14000,16 +14029,16 @@
         <v>11</v>
       </c>
       <c r="J34" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K34" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L34" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K34" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L34" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14031,16 +14060,16 @@
         <v>11</v>
       </c>
       <c r="J35" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K35" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L35" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K35" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L35" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14062,16 +14091,16 @@
         <v>11</v>
       </c>
       <c r="J36" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K36" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L36" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K36" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L36" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14093,16 +14122,16 @@
         <v>11</v>
       </c>
       <c r="J37" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K37" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L37" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K37" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14124,16 +14153,16 @@
         <v>11</v>
       </c>
       <c r="J38" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K38" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L38" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K38" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14155,16 +14184,16 @@
         <v>11</v>
       </c>
       <c r="J39" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K39" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L39" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K39" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14186,16 +14215,16 @@
         <v>11</v>
       </c>
       <c r="J40" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K40" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L40" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K40" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14217,16 +14246,16 @@
         <v>11</v>
       </c>
       <c r="J41" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K41" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L41" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K41" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L41" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14248,16 +14277,16 @@
         <v>11</v>
       </c>
       <c r="J42" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K42" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L42" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K42" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L42" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14279,16 +14308,16 @@
         <v>11</v>
       </c>
       <c r="J43" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K43" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L43" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K43" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L43" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14310,16 +14339,16 @@
         <v>11</v>
       </c>
       <c r="J44" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K44" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L44" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M44" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K44" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M44" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14341,16 +14370,16 @@
         <v>11</v>
       </c>
       <c r="J45" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K45" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L45" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M45" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K45" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M45" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14372,16 +14401,16 @@
         <v>11</v>
       </c>
       <c r="J46" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K46" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L46" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M46" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K46" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L46" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M46" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14403,16 +14432,16 @@
         <v>11</v>
       </c>
       <c r="J47" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K47" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L47" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M47" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K47" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M47" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14434,16 +14463,16 @@
         <v>11</v>
       </c>
       <c r="J48" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K48" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L48" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M48" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K48" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L48" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M48" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14465,16 +14494,16 @@
         <v>11</v>
       </c>
       <c r="J49" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K49" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L49" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M49" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K49" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L49" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M49" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14496,16 +14525,16 @@
         <v>11</v>
       </c>
       <c r="J50" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K50" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L50" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M50" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K50" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L50" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M50" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14527,16 +14556,16 @@
         <v>11</v>
       </c>
       <c r="J51" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K51" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L51" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M51" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K51" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L51" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M51" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14558,16 +14587,16 @@
         <v>11</v>
       </c>
       <c r="J52" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K52" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L52" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M52" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K52" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L52" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M52" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14589,16 +14618,16 @@
         <v>11</v>
       </c>
       <c r="J53" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K53" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L53" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M53" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K53" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L53" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M53" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14620,16 +14649,16 @@
         <v>11</v>
       </c>
       <c r="J54" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K54" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L54" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M54" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K54" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L54" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M54" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14651,16 +14680,16 @@
         <v>11</v>
       </c>
       <c r="J55" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="K55" s="181" t="s">
-        <v>357</v>
-      </c>
-      <c r="L55" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M55" s="151" t="s">
         <v>334</v>
+      </c>
+      <c r="K55" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="L55" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M55" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14679,19 +14708,19 @@
         <v>143</v>
       </c>
       <c r="I56" s="116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J56" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K56" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="L56" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M56" s="151" t="s">
-        <v>334</v>
+        <v>357</v>
+      </c>
+      <c r="L56" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M56" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14713,16 +14742,16 @@
         <v>130</v>
       </c>
       <c r="J57" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K57" s="102" t="s">
-        <v>359</v>
-      </c>
-      <c r="L57" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M57" s="151" t="s">
-        <v>334</v>
+        <v>358</v>
+      </c>
+      <c r="L57" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M57" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14744,47 +14773,47 @@
         <v>16</v>
       </c>
       <c r="J58" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K58" s="102" t="s">
-        <v>359</v>
-      </c>
-      <c r="L58" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M58" s="151" t="s">
-        <v>334</v>
+        <v>358</v>
+      </c>
+      <c r="L58" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M58" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="14"/>
       <c r="C59" s="16"/>
-      <c r="E59" s="162">
+      <c r="E59" s="161">
         <v>111</v>
       </c>
       <c r="F59" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="166" t="s">
+      <c r="G59" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="163" t="s">
+      <c r="H59" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="164" t="s">
+      <c r="I59" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="167" t="s">
-        <v>335</v>
+      <c r="J59" s="166" t="s">
+        <v>334</v>
       </c>
       <c r="K59" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="L59" s="185">
-        <v>43962</v>
-      </c>
-      <c r="M59" s="152" t="s">
-        <v>334</v>
+        <v>364</v>
+      </c>
+      <c r="L59" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M59" s="151" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14800,28 +14829,28 @@
         <v>14</v>
       </c>
       <c r="H60" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="I60" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="I60" s="114" t="s">
-        <v>290</v>
-      </c>
       <c r="J60" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K60" s="102" t="s">
-        <v>360</v>
-      </c>
-      <c r="L60" s="184">
-        <v>43962</v>
-      </c>
-      <c r="M60" s="151" t="s">
-        <v>334</v>
+        <v>359</v>
+      </c>
+      <c r="L60" s="183">
+        <v>43962</v>
+      </c>
+      <c r="M60" s="150" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
       <c r="C61" s="16"/>
-      <c r="E61" s="165">
+      <c r="E61" s="164">
         <v>113</v>
       </c>
       <c r="F61" s="100" t="s">
@@ -14830,29 +14859,29 @@
       <c r="G61" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="167" t="s">
-        <v>291</v>
-      </c>
-      <c r="I61" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="J61" s="167" t="s">
-        <v>335</v>
+      <c r="H61" s="166" t="s">
+        <v>290</v>
+      </c>
+      <c r="I61" s="167" t="s">
+        <v>292</v>
+      </c>
+      <c r="J61" s="166" t="s">
+        <v>334</v>
       </c>
       <c r="K61" s="100" t="s">
-        <v>361</v>
-      </c>
-      <c r="L61" s="185">
-        <v>43962</v>
-      </c>
-      <c r="M61" s="152" t="s">
-        <v>334</v>
+        <v>360</v>
+      </c>
+      <c r="L61" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M61" s="151" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="C62" s="16"/>
-      <c r="E62" s="165">
+      <c r="E62" s="164">
         <v>114</v>
       </c>
       <c r="F62" s="100" t="s">
@@ -14861,23 +14890,23 @@
       <c r="G62" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="167" t="s">
-        <v>292</v>
-      </c>
-      <c r="I62" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="J62" s="167" t="s">
-        <v>335</v>
+      <c r="H62" s="166" t="s">
+        <v>291</v>
+      </c>
+      <c r="I62" s="167" t="s">
+        <v>293</v>
+      </c>
+      <c r="J62" s="166" t="s">
+        <v>334</v>
       </c>
       <c r="K62" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="L62" s="185">
-        <v>43962</v>
-      </c>
-      <c r="M62" s="152" t="s">
-        <v>334</v>
+        <v>361</v>
+      </c>
+      <c r="L62" s="184">
+        <v>43962</v>
+      </c>
+      <c r="M62" s="151" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14892,23 +14921,23 @@
       <c r="G63" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="170" t="s">
-        <v>296</v>
-      </c>
-      <c r="I63" s="169" t="s">
+      <c r="H63" s="169" t="s">
         <v>295</v>
       </c>
-      <c r="J63" s="170" t="s">
-        <v>335</v>
+      <c r="I63" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="J63" s="169" t="s">
+        <v>334</v>
       </c>
       <c r="K63" s="104" t="s">
-        <v>363</v>
-      </c>
-      <c r="L63" s="186">
-        <v>43962</v>
-      </c>
-      <c r="M63" s="153" t="s">
-        <v>334</v>
+        <v>362</v>
+      </c>
+      <c r="L63" s="185">
+        <v>43962</v>
+      </c>
+      <c r="M63" s="152" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -14931,7 +14960,7 @@
   <dimension ref="B1:M48"/>
   <sheetViews>
     <sheetView topLeftCell="E37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K4"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14955,11 +14984,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="216"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -14975,9 +15004,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -14985,11 +15014,11 @@
         <v>147</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="189" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="189" t="s">
-        <v>356</v>
+      <c r="J3" s="188" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="188" t="s">
+        <v>355</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="9"/>
@@ -14997,18 +15026,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="187" t="s">
-        <v>381</v>
-      </c>
-      <c r="K4" s="188">
+      <c r="J4" s="186" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="187">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -15034,8 +15063,8 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="176" t="s">
-        <v>323</v>
+      <c r="E7" s="175" t="s">
+        <v>322</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>3</v>
@@ -15052,11 +15081,11 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="150" t="s">
-        <v>297</v>
-      </c>
-      <c r="L7" s="150" t="s">
-        <v>288</v>
+      <c r="K7" s="149" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="M7" s="62" t="s">
         <v>8</v>
@@ -15080,17 +15109,17 @@
       <c r="I8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K8" s="181" t="s">
+      <c r="J8" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L8" s="180">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="178" t="s">
+      <c r="K8" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L8" s="179">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15111,17 +15140,17 @@
       <c r="I9" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" s="181" t="s">
+      <c r="J9" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L9" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="178" t="s">
+      <c r="K9" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L9" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15142,17 +15171,17 @@
       <c r="I10" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K10" s="181" t="s">
+      <c r="J10" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L10" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="179" t="s">
+      <c r="K10" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L10" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="178" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15173,17 +15202,17 @@
       <c r="I11" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K11" s="181" t="s">
+      <c r="J11" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L11" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="179" t="s">
+      <c r="K11" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L11" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="178" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15204,17 +15233,17 @@
       <c r="I12" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K12" s="181" t="s">
+      <c r="J12" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L12" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="151" t="s">
+      <c r="K12" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L12" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15235,17 +15264,17 @@
       <c r="I13" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K13" s="181" t="s">
+      <c r="J13" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L13" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="151" t="s">
+      <c r="K13" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L13" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15266,17 +15295,17 @@
       <c r="I14" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K14" s="181" t="s">
+      <c r="J14" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L14" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="151" t="s">
+      <c r="K14" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L14" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15297,17 +15326,17 @@
       <c r="I15" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K15" s="181" t="s">
+      <c r="J15" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L15" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="151" t="s">
+      <c r="K15" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L15" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15328,17 +15357,17 @@
       <c r="I16" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K16" s="181" t="s">
+      <c r="J16" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L16" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="151" t="s">
+      <c r="K16" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L16" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15359,17 +15388,17 @@
       <c r="I17" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K17" s="181" t="s">
+      <c r="J17" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L17" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="151" t="s">
+      <c r="K17" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L17" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15390,17 +15419,17 @@
       <c r="I18" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K18" s="181" t="s">
+      <c r="J18" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L18" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="151" t="s">
+      <c r="K18" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L18" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15421,17 +15450,17 @@
       <c r="I19" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K19" s="181" t="s">
+      <c r="J19" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L19" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="151" t="s">
+      <c r="K19" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L19" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15452,17 +15481,17 @@
       <c r="I20" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K20" s="181" t="s">
+      <c r="J20" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L20" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="151" t="s">
+      <c r="K20" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L20" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15483,17 +15512,17 @@
       <c r="I21" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K21" s="181" t="s">
+      <c r="J21" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L21" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="151" t="s">
+      <c r="K21" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L21" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15514,17 +15543,17 @@
       <c r="I22" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" s="181" t="s">
+      <c r="J22" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L22" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="151" t="s">
+      <c r="K22" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L22" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15545,17 +15574,17 @@
       <c r="I23" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K23" s="181" t="s">
+      <c r="J23" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L23" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="151" t="s">
+      <c r="K23" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L23" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15576,17 +15605,17 @@
       <c r="I24" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K24" s="181" t="s">
+      <c r="J24" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L24" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="151" t="s">
+      <c r="K24" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L24" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15607,17 +15636,17 @@
       <c r="I25" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K25" s="181" t="s">
+      <c r="J25" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L25" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="151" t="s">
+      <c r="K25" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L25" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15638,17 +15667,17 @@
       <c r="I26" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K26" s="181" t="s">
+      <c r="J26" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L26" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="151" t="s">
+      <c r="K26" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L26" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15669,17 +15698,17 @@
       <c r="I27" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K27" s="181" t="s">
+      <c r="J27" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L27" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="151" t="s">
+      <c r="K27" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L27" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15700,17 +15729,17 @@
       <c r="I28" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K28" s="181" t="s">
+      <c r="J28" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L28" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="151" t="s">
+      <c r="K28" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L28" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15731,17 +15760,17 @@
       <c r="I29" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K29" s="181" t="s">
+      <c r="J29" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L29" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="151" t="s">
+      <c r="K29" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L29" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15762,17 +15791,17 @@
       <c r="I30" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K30" s="181" t="s">
+      <c r="J30" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L30" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="151" t="s">
+      <c r="K30" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L30" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15793,17 +15822,17 @@
       <c r="I31" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K31" s="181" t="s">
+      <c r="J31" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L31" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="151" t="s">
+      <c r="K31" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L31" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15824,17 +15853,17 @@
       <c r="I32" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K32" s="181" t="s">
+      <c r="J32" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L32" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="151" t="s">
+      <c r="K32" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L32" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15855,17 +15884,17 @@
       <c r="I33" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K33" s="181" t="s">
+      <c r="J33" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L33" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="151" t="s">
+      <c r="K33" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L33" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15886,17 +15915,17 @@
       <c r="I34" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K34" s="181" t="s">
+      <c r="J34" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L34" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="151" t="s">
+      <c r="K34" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L34" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15917,17 +15946,17 @@
       <c r="I35" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J35" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K35" s="181" t="s">
+      <c r="J35" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L35" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="151" t="s">
+      <c r="K35" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L35" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15948,17 +15977,17 @@
       <c r="I36" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K36" s="181" t="s">
+      <c r="J36" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L36" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="151" t="s">
+      <c r="K36" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L36" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15979,17 +16008,17 @@
       <c r="I37" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K37" s="181" t="s">
+      <c r="J37" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L37" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="151" t="s">
+      <c r="K37" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L37" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16010,17 +16039,17 @@
       <c r="I38" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K38" s="181" t="s">
+      <c r="J38" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L38" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="151" t="s">
+      <c r="K38" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L38" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16041,17 +16070,17 @@
       <c r="I39" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K39" s="181" t="s">
+      <c r="J39" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="151" t="s">
+      <c r="K39" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L39" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16072,17 +16101,17 @@
       <c r="I40" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K40" s="181" t="s">
+      <c r="J40" s="189" t="s">
         <v>368</v>
       </c>
-      <c r="L40" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="151" t="s">
+      <c r="K40" s="180" t="s">
         <v>367</v>
+      </c>
+      <c r="L40" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16103,17 +16132,17 @@
       <c r="I41" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="192" t="s">
-        <v>370</v>
+      <c r="J41" s="191" t="s">
+        <v>369</v>
       </c>
       <c r="K41" s="102" t="s">
-        <v>372</v>
-      </c>
-      <c r="L41" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="151" t="s">
-        <v>367</v>
+        <v>371</v>
+      </c>
+      <c r="L41" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16129,22 +16158,22 @@
         <v>164</v>
       </c>
       <c r="H42" s="111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I42" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="192" t="s">
-        <v>370</v>
+      <c r="J42" s="191" t="s">
+        <v>369</v>
       </c>
       <c r="K42" s="102" t="s">
-        <v>378</v>
-      </c>
-      <c r="L42" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="151" t="s">
-        <v>367</v>
+        <v>377</v>
+      </c>
+      <c r="L42" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16160,22 +16189,22 @@
         <v>164</v>
       </c>
       <c r="H43" s="111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I43" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="192" t="s">
-        <v>370</v>
+      <c r="J43" s="191" t="s">
+        <v>369</v>
       </c>
       <c r="K43" s="102" t="s">
-        <v>380</v>
-      </c>
-      <c r="L43" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="151" t="s">
-        <v>367</v>
+        <v>379</v>
+      </c>
+      <c r="L43" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16196,17 +16225,17 @@
       <c r="I44" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J44" s="183" t="s">
-        <v>379</v>
+      <c r="J44" s="182" t="s">
+        <v>378</v>
       </c>
       <c r="K44" s="102" t="s">
-        <v>373</v>
-      </c>
-      <c r="L44" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M44" s="151" t="s">
-        <v>367</v>
+        <v>372</v>
+      </c>
+      <c r="L44" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M44" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16228,16 +16257,16 @@
         <v>168</v>
       </c>
       <c r="J45" s="111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K45" s="102" t="s">
-        <v>374</v>
-      </c>
-      <c r="L45" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M45" s="151" t="s">
-        <v>367</v>
+        <v>373</v>
+      </c>
+      <c r="L45" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M45" s="150" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16258,17 +16287,17 @@
       <c r="I46" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="J46" s="193" t="s">
-        <v>371</v>
+      <c r="J46" s="192" t="s">
+        <v>370</v>
       </c>
       <c r="K46" s="104" t="s">
-        <v>375</v>
-      </c>
-      <c r="L46" s="194">
-        <v>43962</v>
-      </c>
-      <c r="M46" s="153" t="s">
-        <v>367</v>
+        <v>374</v>
+      </c>
+      <c r="L46" s="193">
+        <v>43962</v>
+      </c>
+      <c r="M46" s="152" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16335,11 +16364,11 @@
     <row r="2" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="215"/>
-      <c r="F2" s="216"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="56" t="s">
         <v>0</v>
       </c>
@@ -16355,9 +16384,9 @@
     <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="219"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
@@ -16365,11 +16394,11 @@
         <v>146</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="189" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="189" t="s">
-        <v>356</v>
+      <c r="J3" s="188" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="188" t="s">
+        <v>355</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="9"/>
@@ -16377,18 +16406,18 @@
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="187" t="s">
-        <v>349</v>
-      </c>
-      <c r="K4" s="188">
+      <c r="J4" s="186" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="187">
         <v>43962</v>
       </c>
       <c r="L4" s="33"/>
@@ -16414,8 +16443,8 @@
     <row r="7" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="E7" s="176" t="s">
-        <v>323</v>
+      <c r="E7" s="175" t="s">
+        <v>322</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>3</v>
@@ -16432,11 +16461,11 @@
       <c r="J7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="150" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" s="150" t="s">
-        <v>288</v>
+      <c r="K7" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="M7" s="62" t="s">
         <v>8</v>
@@ -16460,17 +16489,17 @@
       <c r="I8" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K8" s="181" t="s">
-        <v>383</v>
-      </c>
-      <c r="L8" s="180">
-        <v>43962</v>
-      </c>
-      <c r="M8" s="178" t="s">
-        <v>367</v>
+      <c r="J8" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K8" s="180" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="179">
+        <v>43962</v>
+      </c>
+      <c r="M8" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16491,17 +16520,17 @@
       <c r="I9" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L9" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M9" s="178" t="s">
-        <v>367</v>
+      <c r="J9" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L9" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M9" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16522,17 +16551,17 @@
       <c r="I10" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K10" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L10" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M10" s="178" t="s">
-        <v>367</v>
+      <c r="J10" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M10" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16553,17 +16582,17 @@
       <c r="I11" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K11" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L11" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M11" s="178" t="s">
-        <v>367</v>
+      <c r="J11" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L11" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M11" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16584,17 +16613,17 @@
       <c r="I12" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K12" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L12" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M12" s="178" t="s">
-        <v>367</v>
+      <c r="J12" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K12" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L12" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M12" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16615,17 +16644,17 @@
       <c r="I13" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K13" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L13" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M13" s="178" t="s">
-        <v>367</v>
+      <c r="J13" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L13" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M13" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16646,17 +16675,17 @@
       <c r="I14" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K14" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L14" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M14" s="178" t="s">
-        <v>367</v>
+      <c r="J14" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K14" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M14" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16677,17 +16706,17 @@
       <c r="I15" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K15" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L15" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M15" s="178" t="s">
-        <v>367</v>
+      <c r="J15" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K15" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L15" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M15" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16708,17 +16737,17 @@
       <c r="I16" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K16" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L16" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M16" s="178" t="s">
-        <v>367</v>
+      <c r="J16" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L16" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M16" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16739,17 +16768,17 @@
       <c r="I17" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K17" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L17" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M17" s="178" t="s">
-        <v>367</v>
+      <c r="J17" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K17" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M17" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16770,17 +16799,17 @@
       <c r="I18" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K18" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L18" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M18" s="178" t="s">
-        <v>367</v>
+      <c r="J18" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K18" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L18" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M18" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16801,17 +16830,17 @@
       <c r="I19" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K19" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M19" s="178" t="s">
-        <v>367</v>
+      <c r="J19" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K19" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L19" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M19" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16832,17 +16861,17 @@
       <c r="I20" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K20" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L20" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M20" s="178" t="s">
-        <v>367</v>
+      <c r="J20" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K20" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L20" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16863,17 +16892,17 @@
       <c r="I21" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K21" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L21" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M21" s="178" t="s">
-        <v>367</v>
+      <c r="J21" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K21" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L21" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M21" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16894,17 +16923,17 @@
       <c r="I22" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L22" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M22" s="178" t="s">
-        <v>367</v>
+      <c r="J22" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K22" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L22" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M22" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16925,17 +16954,17 @@
       <c r="I23" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K23" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L23" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M23" s="178" t="s">
-        <v>367</v>
+      <c r="J23" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K23" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L23" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M23" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16956,17 +16985,17 @@
       <c r="I24" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K24" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L24" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M24" s="178" t="s">
-        <v>367</v>
+      <c r="J24" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K24" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L24" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M24" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16987,17 +17016,17 @@
       <c r="I25" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K25" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L25" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M25" s="178" t="s">
-        <v>367</v>
+      <c r="J25" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M25" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17018,17 +17047,17 @@
       <c r="I26" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K26" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L26" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M26" s="178" t="s">
-        <v>367</v>
+      <c r="J26" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K26" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L26" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M26" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17049,17 +17078,17 @@
       <c r="I27" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K27" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L27" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M27" s="178" t="s">
-        <v>367</v>
+      <c r="J27" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K27" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L27" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M27" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17080,17 +17109,17 @@
       <c r="I28" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K28" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L28" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M28" s="178" t="s">
-        <v>367</v>
+      <c r="J28" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L28" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M28" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17111,17 +17140,17 @@
       <c r="I29" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K29" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L29" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M29" s="178" t="s">
-        <v>367</v>
+      <c r="J29" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K29" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L29" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M29" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17142,17 +17171,17 @@
       <c r="I30" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K30" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L30" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M30" s="178" t="s">
-        <v>367</v>
+      <c r="J30" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K30" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M30" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17173,17 +17202,17 @@
       <c r="I31" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K31" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L31" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M31" s="178" t="s">
-        <v>367</v>
+      <c r="J31" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K31" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L31" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M31" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17204,17 +17233,17 @@
       <c r="I32" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K32" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L32" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M32" s="178" t="s">
-        <v>367</v>
+      <c r="J32" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K32" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L32" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17235,17 +17264,17 @@
       <c r="I33" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K33" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L33" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M33" s="178" t="s">
-        <v>367</v>
+      <c r="J33" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K33" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L33" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M33" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17266,17 +17295,17 @@
       <c r="I34" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K34" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L34" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M34" s="178" t="s">
-        <v>367</v>
+      <c r="J34" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K34" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L34" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M34" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17297,17 +17326,17 @@
       <c r="I35" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J35" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K35" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L35" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M35" s="178" t="s">
-        <v>367</v>
+      <c r="J35" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K35" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L35" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M35" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17328,17 +17357,17 @@
       <c r="I36" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K36" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L36" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M36" s="178" t="s">
-        <v>367</v>
+      <c r="J36" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K36" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L36" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M36" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17359,17 +17388,17 @@
       <c r="I37" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K37" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L37" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M37" s="178" t="s">
-        <v>367</v>
+      <c r="J37" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K37" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L37" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M37" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17390,17 +17419,17 @@
       <c r="I38" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K38" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L38" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M38" s="178" t="s">
-        <v>367</v>
+      <c r="J38" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K38" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L38" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M38" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17421,17 +17450,17 @@
       <c r="I39" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K39" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L39" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M39" s="178" t="s">
-        <v>367</v>
+      <c r="J39" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L39" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M39" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17452,17 +17481,17 @@
       <c r="I40" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="K40" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L40" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M40" s="178" t="s">
-        <v>367</v>
+      <c r="J40" s="189" t="s">
+        <v>368</v>
+      </c>
+      <c r="K40" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L40" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M40" s="177" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17483,17 +17512,17 @@
       <c r="I41" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="J41" s="192" t="s">
-        <v>382</v>
-      </c>
-      <c r="K41" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L41" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M41" s="195" t="s">
-        <v>367</v>
+      <c r="J41" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L41" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M41" s="194" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17514,17 +17543,17 @@
       <c r="I42" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="J42" s="192" t="s">
-        <v>382</v>
-      </c>
-      <c r="K42" s="181" t="s">
-        <v>384</v>
-      </c>
-      <c r="L42" s="182">
-        <v>43962</v>
-      </c>
-      <c r="M42" s="195" t="s">
-        <v>367</v>
+      <c r="J42" s="191" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" s="181">
+        <v>43962</v>
+      </c>
+      <c r="M42" s="194" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -17545,17 +17574,17 @@
       <c r="I43" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="J43" s="193" t="s">
-        <v>382</v>
+      <c r="J43" s="192" t="s">
+        <v>381</v>
       </c>
       <c r="K43" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="L43" s="194">
-        <v>43962</v>
-      </c>
-      <c r="M43" s="196" t="s">
-        <v>367</v>
+        <v>383</v>
+      </c>
+      <c r="L43" s="193">
+        <v>43962</v>
+      </c>
+      <c r="M43" s="195" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17597,8 +17626,8 @@
   </sheetPr>
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="G1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17618,11 +17647,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="223" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="225"/>
+      <c r="B2" s="221" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
@@ -17636,9 +17665,9 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
@@ -17648,9 +17677,9 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="229"/>
       <c r="E4" s="22" t="s">
         <v>2</v>
       </c>
@@ -17661,8 +17690,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="177" t="s">
-        <v>321</v>
+      <c r="C6" s="176" t="s">
+        <v>320</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>3</v>
@@ -17679,11 +17708,11 @@
       <c r="H6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="171" t="s">
-        <v>299</v>
-      </c>
-      <c r="J6" s="241" t="s">
-        <v>288</v>
+      <c r="I6" s="170" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="201" t="s">
+        <v>287</v>
       </c>
       <c r="K6" s="75" t="s">
         <v>8</v>
@@ -17705,16 +17734,18 @@
       <c r="G7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="197" t="s">
-        <v>385</v>
-      </c>
-      <c r="I7" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J7" s="180">
+      <c r="H7" s="196" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="179">
         <v>43964</v>
       </c>
-      <c r="K7" s="78"/>
+      <c r="K7" s="239" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="8" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="122">
@@ -17732,16 +17763,18 @@
       <c r="G8" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I8" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J8" s="182">
+      <c r="H8" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J8" s="181">
         <v>43964</v>
       </c>
-      <c r="K8" s="81"/>
+      <c r="K8" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="9" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="122">
@@ -17759,16 +17792,18 @@
       <c r="G9" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I9" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J9" s="182">
+      <c r="H9" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9" s="181">
         <v>43964</v>
       </c>
-      <c r="K9" s="81"/>
+      <c r="K9" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="10" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="122">
@@ -17786,16 +17821,18 @@
       <c r="G10" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I10" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J10" s="182">
+      <c r="H10" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10" s="181">
         <v>43964</v>
       </c>
-      <c r="K10" s="81"/>
+      <c r="K10" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="11" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="122">
@@ -17813,16 +17850,18 @@
       <c r="G11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I11" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J11" s="182">
+      <c r="H11" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J11" s="181">
         <v>43964</v>
       </c>
-      <c r="K11" s="81"/>
+      <c r="K11" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="12" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="122">
@@ -17840,16 +17879,18 @@
       <c r="G12" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I12" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J12" s="182">
+      <c r="H12" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J12" s="181">
         <v>43964</v>
       </c>
-      <c r="K12" s="81"/>
+      <c r="K12" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="13" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="122">
@@ -17867,16 +17908,18 @@
       <c r="G13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I13" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J13" s="182">
+      <c r="H13" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13" s="181">
         <v>43964</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="14" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="122">
@@ -17894,16 +17937,18 @@
       <c r="G14" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I14" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J14" s="182">
+      <c r="H14" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J14" s="181">
         <v>43964</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="15" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="122">
@@ -17921,16 +17966,18 @@
       <c r="G15" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I15" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J15" s="182">
+      <c r="H15" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J15" s="181">
         <v>43964</v>
       </c>
-      <c r="K15" s="81"/>
+      <c r="K15" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="16" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="122">
@@ -17948,16 +17995,18 @@
       <c r="G16" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I16" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J16" s="182">
+      <c r="H16" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16" s="181">
         <v>43964</v>
       </c>
-      <c r="K16" s="81"/>
+      <c r="K16" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="17" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="122">
@@ -17975,16 +18024,18 @@
       <c r="G17" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="198" t="s">
-        <v>386</v>
-      </c>
-      <c r="I17" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J17" s="182">
+      <c r="H17" s="191" t="s">
+        <v>385</v>
+      </c>
+      <c r="I17" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" s="181">
         <v>43964</v>
       </c>
-      <c r="K17" s="81"/>
+      <c r="K17" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="18" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="122">
@@ -18002,16 +18053,18 @@
       <c r="G18" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="198" t="s">
+      <c r="H18" s="191" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="242" t="s">
         <v>387</v>
       </c>
-      <c r="I18" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J18" s="182">
+      <c r="J18" s="181">
         <v>43964</v>
       </c>
-      <c r="K18" s="81"/>
+      <c r="K18" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="19" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="122">
@@ -18029,16 +18082,18 @@
       <c r="G19" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="198" t="s">
+      <c r="H19" s="191" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="I19" s="202" t="s">
-        <v>390</v>
-      </c>
-      <c r="J19" s="182">
+      <c r="J19" s="181">
         <v>43964</v>
       </c>
-      <c r="K19" s="81"/>
+      <c r="K19" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="20" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="122">
@@ -18056,16 +18111,18 @@
       <c r="G20" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="198" t="s">
+      <c r="H20" s="191" t="s">
+        <v>386</v>
+      </c>
+      <c r="I20" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="I20" s="202" t="s">
-        <v>390</v>
-      </c>
-      <c r="J20" s="182">
+      <c r="J20" s="181">
         <v>43964</v>
       </c>
-      <c r="K20" s="81"/>
+      <c r="K20" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="21" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="122">
@@ -18083,16 +18140,18 @@
       <c r="G21" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="198" t="s">
+      <c r="H21" s="191" t="s">
+        <v>386</v>
+      </c>
+      <c r="I21" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="I21" s="202" t="s">
-        <v>390</v>
-      </c>
-      <c r="J21" s="182">
+      <c r="J21" s="181">
         <v>43964</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="22" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="122">
@@ -18110,16 +18169,18 @@
       <c r="G22" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I22" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="J22" s="182">
+      <c r="H22" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I22" s="242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J22" s="181">
         <v>43964</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="23" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="123">
@@ -18135,16 +18196,18 @@
         <v>170</v>
       </c>
       <c r="G23" s="95"/>
-      <c r="H23" s="198" t="s">
-        <v>385</v>
-      </c>
-      <c r="I23" s="202" t="s">
-        <v>391</v>
-      </c>
-      <c r="J23" s="182">
+      <c r="H23" s="197" t="s">
+        <v>384</v>
+      </c>
+      <c r="I23" s="243" t="s">
+        <v>389</v>
+      </c>
+      <c r="J23" s="181">
         <v>43964</v>
       </c>
-      <c r="K23" s="81"/>
+      <c r="K23" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="24" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="107">
@@ -18160,16 +18223,18 @@
         <v>171</v>
       </c>
       <c r="G24" s="95"/>
-      <c r="H24" s="199" t="s">
-        <v>385</v>
-      </c>
-      <c r="I24" s="204" t="s">
-        <v>392</v>
-      </c>
-      <c r="J24" s="182">
+      <c r="H24" s="198" t="s">
+        <v>384</v>
+      </c>
+      <c r="I24" s="244" t="s">
+        <v>390</v>
+      </c>
+      <c r="J24" s="181">
         <v>43964</v>
       </c>
-      <c r="K24" s="85"/>
+      <c r="K24" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="25" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="107">
@@ -18185,16 +18250,18 @@
         <v>172</v>
       </c>
       <c r="G25" s="95"/>
-      <c r="H25" s="199" t="s">
-        <v>385</v>
-      </c>
-      <c r="I25" s="202" t="s">
-        <v>393</v>
-      </c>
-      <c r="J25" s="182">
+      <c r="H25" s="198" t="s">
+        <v>384</v>
+      </c>
+      <c r="I25" s="243" t="s">
+        <v>391</v>
+      </c>
+      <c r="J25" s="181">
         <v>43964</v>
       </c>
-      <c r="K25" s="85"/>
+      <c r="K25" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="26" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="107">
@@ -18210,16 +18277,18 @@
         <v>173</v>
       </c>
       <c r="G26" s="95"/>
-      <c r="H26" s="199" t="s">
-        <v>385</v>
-      </c>
-      <c r="I26" s="202" t="s">
-        <v>394</v>
-      </c>
-      <c r="J26" s="182">
+      <c r="H26" s="198" t="s">
+        <v>384</v>
+      </c>
+      <c r="I26" s="243" t="s">
+        <v>392</v>
+      </c>
+      <c r="J26" s="181">
         <v>43964</v>
       </c>
-      <c r="K26" s="85"/>
+      <c r="K26" s="240" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="27" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="107">
@@ -18237,16 +18306,18 @@
       <c r="G27" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="199" t="s">
-        <v>385</v>
-      </c>
-      <c r="I27" s="202" t="s">
+      <c r="H27" s="198" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="243" t="s">
+        <v>393</v>
+      </c>
+      <c r="J27" s="181">
+        <v>43964</v>
+      </c>
+      <c r="K27" s="240" t="s">
         <v>395</v>
       </c>
-      <c r="J27" s="182">
-        <v>43964</v>
-      </c>
-      <c r="K27" s="85"/>
     </row>
     <row r="28" spans="2:11" s="20" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="142">
@@ -18264,16 +18335,18 @@
       <c r="G28" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="200" t="s">
-        <v>385</v>
-      </c>
-      <c r="I28" s="205" t="s">
-        <v>396</v>
-      </c>
-      <c r="J28" s="242">
+      <c r="H28" s="199" t="s">
+        <v>384</v>
+      </c>
+      <c r="I28" s="245" t="s">
+        <v>394</v>
+      </c>
+      <c r="J28" s="202">
         <v>43964</v>
       </c>
-      <c r="K28" s="146"/>
+      <c r="K28" s="241" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="29" spans="2:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
@@ -18285,8 +18358,8 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="243"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="203"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.2">
@@ -18341,7 +18414,7 @@
   </sheetPr>
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18360,11 +18433,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="223" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="225"/>
+      <c r="B2" s="221" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
@@ -18378,9 +18451,9 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
@@ -18390,9 +18463,9 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="229"/>
       <c r="E4" s="22" t="s">
         <v>2</v>
       </c>
@@ -18403,8 +18476,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="177" t="s">
-        <v>321</v>
+      <c r="C6" s="176" t="s">
+        <v>320</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>3</v>
@@ -18421,11 +18494,11 @@
       <c r="H6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="171" t="s">
-        <v>298</v>
-      </c>
-      <c r="J6" s="150" t="s">
-        <v>288</v>
+      <c r="I6" s="170" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K6" s="75" t="s">
         <v>8</v>
@@ -18596,7 +18669,7 @@
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
-      <c r="J14" s="155"/>
+      <c r="J14" s="154"/>
       <c r="K14" s="81"/>
     </row>
     <row r="15" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -18617,7 +18690,7 @@
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
-      <c r="J15" s="155"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="81"/>
     </row>
     <row r="16" spans="2:11" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18638,7 +18711,7 @@
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
-      <c r="J16" s="156"/>
+      <c r="J16" s="155"/>
       <c r="K16" s="81"/>
     </row>
     <row r="17" spans="2:11" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -18659,7 +18732,7 @@
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
-      <c r="J17" s="156"/>
+      <c r="J17" s="155"/>
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -18680,7 +18753,7 @@
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="82"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="155"/>
       <c r="K18" s="83"/>
     </row>
     <row r="19" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -18701,7 +18774,7 @@
       </c>
       <c r="H19" s="84"/>
       <c r="I19" s="84"/>
-      <c r="J19" s="156"/>
+      <c r="J19" s="155"/>
       <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -18722,7 +18795,7 @@
       </c>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
-      <c r="J20" s="156"/>
+      <c r="J20" s="155"/>
       <c r="K20" s="85"/>
     </row>
     <row r="21" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -18743,7 +18816,7 @@
       </c>
       <c r="H21" s="84"/>
       <c r="I21" s="84"/>
-      <c r="J21" s="156"/>
+      <c r="J21" s="155"/>
       <c r="K21" s="85"/>
     </row>
     <row r="22" spans="2:11" s="20" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -18764,11 +18837,11 @@
       </c>
       <c r="H22" s="84"/>
       <c r="I22" s="84"/>
-      <c r="J22" s="156"/>
+      <c r="J22" s="155"/>
       <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:11" s="20" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="158">
+      <c r="C23" s="157">
         <v>229</v>
       </c>
       <c r="D23" s="104" t="s">
@@ -18777,7 +18850,7 @@
       <c r="E23" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="159" t="s">
+      <c r="F23" s="158" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="88" t="s">
@@ -18785,7 +18858,7 @@
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
-      <c r="J23" s="157"/>
+      <c r="J23" s="156"/>
       <c r="K23" s="89"/>
     </row>
     <row r="24" spans="2:11" ht="15" x14ac:dyDescent="0.2">
@@ -18853,8 +18926,8 @@
   </sheetPr>
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18874,11 +18947,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="51" t="s">
         <v>0</v>
       </c>
@@ -18892,9 +18965,9 @@
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="237"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="235"/>
       <c r="E3" s="53" t="s">
         <v>1</v>
       </c>
@@ -18908,9 +18981,9 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="240"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
@@ -18946,8 +19019,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="25" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="176" t="s">
-        <v>324</v>
+      <c r="C7" s="175" t="s">
+        <v>323</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>3</v>
@@ -18964,11 +19037,11 @@
       <c r="H7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="150" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="150" t="s">
-        <v>288</v>
+      <c r="I7" s="149" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>287</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>8</v>
@@ -19037,7 +19110,7 @@
       <c r="J10" s="102"/>
       <c r="K10" s="91"/>
     </row>
-    <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="132">
         <v>233</v>
       </c>
@@ -19053,7 +19126,7 @@
       <c r="G11" s="141" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="118"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="118"/>
       <c r="J11" s="102"/>
       <c r="K11" s="91"/>
@@ -19074,7 +19147,7 @@
       <c r="G12" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="118"/>
+      <c r="H12" s="246"/>
       <c r="I12" s="118"/>
       <c r="J12" s="102"/>
       <c r="K12" s="91"/>
@@ -19122,7 +19195,7 @@
       <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" s="26" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="160">
+      <c r="C15" s="159">
         <v>237</v>
       </c>
       <c r="D15" s="136" t="s">
@@ -19139,7 +19212,7 @@
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="67"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="153"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
